--- a/news_data/2019_09.xlsx
+++ b/news_data/2019_09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,61 +22,88 @@
     <t>naver_news_articles</t>
   </si>
   <si>
-    <t>제주도 중문 관광단지 ‘이조은식당’ 효리의단골집 갈치정식 후기좋아</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 문어해물갈치조림에 별미인 옥...</t>
-  </si>
-  <si>
-    <t>통갈치구이부터 갈치조림까지 제공하는 제주도 중문 관광단지 맛집 효리의단골...</t>
-  </si>
-  <si>
-    <t>효리의단골집 ‘이조은식당’ 갈치회,구이,조림까지 스페셜하게 즐기는 제주도...</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 올레길 환경정화 활동</t>
-  </si>
-  <si>
-    <t>제주도 제주시, 서귀포시 중문 맛집, 카페부터 관광지, 숙소까지 9월 제주도여...</t>
-  </si>
-  <si>
-    <t>제주 가볼만한곳을 찾는다면? 제주도 실내관광지 브릭캠퍼스로</t>
-  </si>
-  <si>
-    <t>롯데관광개발, 제주도 카지노 자금 조달 마무리-NH투자</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 문어해물갈치조림에 서비스...</t>
-  </si>
-  <si>
-    <t>제주도 - 텐센트그룹 협력 중국 스마트 관광시장 공략</t>
-  </si>
-  <si>
-    <t>제주도 중문 관광단지 ‘이조은식당’ 효리의단골집 갈치정식 후기좋아 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 문어해물갈치조림에 별미인 옥돔구이, 성게국 서비스 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 10:35 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 문어해물갈치조림에 별미인 옥돔구이, 성게국 서비스 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 문어해물갈치조림에 별미인 옥돔구이, 성게국 서비스 기자명 인터넷뉴스팀 입력 2019.09.11 08:44 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 한라산은 해발 1,950m, 면적 약 1,820km²로 제주도의 면적 대부분을 차지하고 있다. 예로부터 금강산, 지리산과 함께 삼신산이라 불려 왔으며, 가마오름, 두무오름, 영주산 등 다양한 이름으로 지칭되어 왔다. 한라산 정상에 있는 백록담은 흰 사슴이 물을 먹는 곳이라는 뜻으로 산자락 곳곳에 오름 또는 악이라 부르는 크고 작은 측화산들이 분포해 있다. 한라산 일대는 천연보호구역으로서 천연기념물 제182호로 지정되어 있다.한라산의 여러 코스 중 아름다운 경치를 감상하면서 트레킹을 할 수 있는 코스는 바로 영실코스다. 입구에서 약 1시간 30분 정도 오르면 웃세오름에 도착할 수 있는데 백록담 화구 벽 아래에 자리한 웃세오름은 1,100고지의 삼형제 오름보다 더 위에 있어 웃세오름이라 부른다. 노루샘에서 목을 축이고 조금 더 가면 웃세오름 대피소가 나온다. 이곳에서 차를 마시거나 간단하게 끼니를 때울 수 있다. 한라산의 변화무쌍한 날씨는 산행의 묘미를 더해 주고, 웃세오름의 수려한 경관은 등산객들의 피로를 잊게 해 준다.산행의 피로를 풀어주려면 맛 좋고 몸에 좋은 영양식이 필요하다. 천고마비의 계절인 가을을 맞아 살이 통통하게 오른 제주 은갈치로 요리한 갈치조림은 여행객들의 입맛을 사로잡고 있다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 제주 특산물인 은빛 통갈치와 문어, 새우, 생전복 등 다양한 해산물로 요리한 문어해물갈치조림을 통해 여행객과 현지인들의 입맛을 사로잡고 있다. 이 요리를 주문하면 별미인 옥돔구이를 서비스로 먹을 수 있고, 성게국도 무료로 제공된다. 그리고 갈치조림에는 천연 약초를 숙성한 양념이 들어가기 때문에 생선과 해산물 특유의 비린 냄새가 없고 맛이 아주 고소하면서 담백하다. 그래서 양념을 밥에 비벼 먹는 사람들도 많다.갈치조림을 주력으로 하는 서귀포 맛집 기원뚝배기 입구에는 커다란 수족관이 있다. 횟집도 아닌데 수족관을 두고 있는 것은 해산물 요리 주문이 들어오면 살아 있는 싱싱한 재료를 사용하여 더욱 맛있는 요리를 손님들에게 제공하기 위함이다.제주 중문 맛집 기원뚝배기에서는 갈치조림만 먹어도 생전복이 무료로 제공된다. 은빛 통갈치 위에 올려진 생전복은 약초 숙성 양념과 어우러져 쫄깃한 식감을 자랑한다. 또한 통갈치조림정식 A세트의 경우 기본 상차림에 나오는 옥돔구이와 성게국에 추가하여 하나씩 더 제공하여 여러 명이 함께 온 경우 부족함 없이 먹을 수 있도록 하였다. 밑반찬은 식당의 맛을 평가할 수 있는 중요한 포인트다. 제주도 맛집 기원뚝배기는 매일 새벽 밑반찬을 직접 만들고 있다. 국내산 재료를 구입하여 내 가족이 먹는다는 마음으로 전라도 엄마의 손맛을 담아 정성껏 만든 밑반찬은 맛이 좋아 여행기간 동안 다시 방문하는 손님들이 많다.제주 맛집 기원뚝배기는 셔틀버스 운행을 통해 무료 픽업서비스를 제공하고 있다. 술자리를 갖거나 혹은 단체로 오는 손님들은 물론 셔틀버스 이용이 필요한 손님들에게는 영업시간 동안 무료로 서비스를 제공하고 있다.명절 연휴에 식당 문을 닫는 곳이 많아 아침식사를 할 곳이 많지 않지만 제주도 맛집 기원뚝배기는 연중 무휴로 해장 메뉴 등 다양한 아침식사 메뉴를 통해 아침 손님을 맞이하고 있어 제주 중문 아침식사 맛집으로 잘 알려져 있다. 영업시간은 오전 7시부터 오후 10시까지이며 아침 메뉴 가운데 전복뚝배기는 10가지 메뉴를 넣고 끓여 맛이 시원하고 얼큰한 것이 특징이다.한편, 기원뚝배기는 넓은 주차장도 식당 바로 옆에 마련하고 있어 주차가 편리하다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 LG생활건강, ‘벨먼X네고왕 바디 세트’ 옥션 단독 기획전 열어 모두가 행복한 세상, 김천! 어린이큰잔치 개최 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 당신만 안 본 뉴스 50대 여배우 ‘조은숙’ 근황 공개...검색량은? "무안하고 당황스러워" 돈스파이크 와이프 성하윤 고충 토로 한그루 이혼에 남편 누구?...과거 애칭·인스타그램 재조명 롤 서버 점검, 언제까지 하나 "차 보닛에 손 대봐" 성하윤 소름 돋게 한 돈스파이크 의심 뭐였길래 50대 여배우 조은숙 "신랑, 어린 걸 불편..." 연하 남편 애칭 뭐길래 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 50대 여배우 ‘조은숙’ 근황 공개...검색량은? 오늘공감 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 10월 4일 오늘의 띠별 운세 '쥐띠·소띠·뱀띠·용띠·개띠 주목' 합참 "북한, 동쪽 방향으로 미상 탄도미사일 발사"...일본 상공 통과한듯 인기기사 1 [오늘의 금값시세] 10월 3일 24·18k 한돈 금시세는? 2 [2022년 10월 공모주 청약 일정] 에스비비테크 수요예측·확정 공모가·상장일은? 3 [2022년 10월 공모주 청약 일정] 샤페론 수요예측·확정 공모가·상장일은? 4 [검은 손이 노린다] 피싱 범죄, 아는 만큼 피할 수 있다 (완) 5 [특징주] 오토앤 주가 급등세... 이유는? 6 [주유소 가격비교] 10월 3일 기름값 싼곳 어디? 최저가 휘발유 1517원·경유 1679원 7 김민기 의원, ``LH 임대주택 부적격 입주자 5년간 4만명 육박`` 8 최영희 의원 “건강보험공단 고액자산가·소득자 구상금 미납 심각” 9 한 총리 "연대·상생으로 재도약…홍익인간 정신으로 새시대 열어가야 10 배준영 의원 "5년간 국세청 과오납환급금 30조5천억 육박" 최신기사 LG생활건강, ‘벨먼X네고왕 바디 세트’ 옥션 단독 기획전 열어 모두가 행복한 세상, 김천! 어린이큰잔치 개최 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>효리의단골집 ‘이조은식당’ 갈치회,구이,조림까지 스페셜하게 즐기는 제주도 중문 관광단지 맛집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 올레길 환경정화 활동 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 10:03 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 올레길 환경정화 활동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도관광협회, 올레길 환경정화 활동 기자명 제주매일 입력 2019.09.03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 김영진)는 지난 달 30일 협회 임직원 20여명이 참가한 가운데 올레길 15-B코스 일대에서 잡목과 쓰레기를 처리하는 환경정화활동을 벌였다. 도관광협회는 올레길 탐방객 및 관광객들에게 보다 쾌적한 환경에서 여행할 수 있도록 편의제공을 위해 매년 상·하반기 지속적인 환경정화를 진행하고 있다. 제주매일 news@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 도내 미취업청년 8365명에 42억원 재난지원금 지급 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 2021년 제주관광수입 6조3402억 원 추계 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 코로나 빗장 풀리자 일본으로…제주 관광업계 ‘전전긍긍’ 포토뉴스 도내 미취업청년 8365명에 42억원 재난지원금 지급 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 2021년 제주관광수입 6조3402억 원 추계 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 제주시, 서귀포시 중문 맛집, 카페부터 관광지, 숙소까지 9월 제주도여행 추천! &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 10:35 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 제주시, 서귀포시 중문 맛집, 카페부터 관광지, 숙소까지 9월 제주도여행 추천! SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 제주시, 서귀포시 중문 맛집, 카페부터 관광지, 숙소까지 9월 제주도여행 추천! 기자명 인터넷뉴스팀 입력 2019.09.06 17:48 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 제주도를 찾는 여행객이라면, 제주시를 비롯하여 서귀포시까지 알찬 여행을 위해 맛집, 카페, 관광지, 숙소까지 미리 알아보는 것이 좋다.제주도 추천 축제로는 누웨마루 페스티벌, 서귀포 과학문화축전, 휴애리 핑크뮬리 축제, 제주 허브동산 핑크뮬리 축제 등이 있다.이어 가파도 가을 꽃 축제, 탑동 해변 공연장의 스트릿잼 아트퍼포먼스 페스티벌, 곶자왈 숲속 콘서트, 야밤버스, 서귀포 칠십리축제 등 다양한 축제들도 기대된다.제주도에서 유명한 맛집을 찾는다면, 고집돌우럭을 추천한다. 제주우럭조림 맛집으로 매우 핫하다.  6월부터 진행한 SNS 먹방이벤트에 약 3천명이 참가하여 9월 해외여행의 주인공이 선정될 예정이다.제주공항, 동문시장 근처에 제주공항점이 있으며, 중문관광단지에 중문점, 함덕해수욕장 도보 3분거리에 함덕점이 있다. 우럭조림을 비롯하여, 해녀들이 물질할 때 먹었던 해녀낭푼밥, 돔베고기, 제주바당물회 등 제주의 맛을 한 상에 맛볼 수 있다. 카페는 중문과 함덕에 위치한 카페바나나가 인기다. 노란빙수와, 돌고래 조형물이 아이들과 함께 방문한 가족들에게도 좋은 기억으로 남는다. 근처 숙소로는 제주 아이미비치호텔, 대명리조트, 선샤인 호텔, 신화리조트, 히든클리프, 켄싱턴호텔 뿐만 아니라 제주 더본호텔, 샤인빌리조트, 라마다앙코르 호텔 등이 있다.그밖에 제주 섭지코지, 제주도 비자림, 김녕해수욕장, 서프라이즈 테마파크, 용눈이오름, 에코랜드 등의 즐길거리가 있다.이어 한라산 국립공원, 서우봉해변, 제주 표선해수욕장 등 다양한 놀거리가 가득하다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 LG생활건강, ‘벨먼X네고왕 바디 세트’ 옥션 단독 기획전 열어 모두가 행복한 세상, 김천! 어린이큰잔치 개최 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 당신만 안 본 뉴스 50대 여배우 ‘조은숙’ 근황 공개...검색량은? "무안하고 당황스러워" 돈스파이크 와이프 성하윤 고충 토로 한그루 이혼에 남편 누구?...과거 애칭·인스타그램 재조명 롤 서버 점검, 언제까지 하나 "차 보닛에 손 대봐" 성하윤 소름 돋게 한 돈스파이크 의심 뭐였길래 50대 여배우 조은숙 "신랑, 어린 걸 불편..." 연하 남편 애칭 뭐길래 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 50대 여배우 ‘조은숙’ 근황 공개...검색량은? 오늘공감 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 10월 4일 오늘의 띠별 운세 '쥐띠·소띠·뱀띠·용띠·개띠 주목' 합참 "북한, 동쪽 방향으로 미상 탄도미사일 발사"...일본 상공 통과한듯 인기기사 1 [오늘의 금값시세] 10월 3일 24·18k 한돈 금시세는? 2 [2022년 10월 공모주 청약 일정] 에스비비테크 수요예측·확정 공모가·상장일은? 3 [2022년 10월 공모주 청약 일정] 샤페론 수요예측·확정 공모가·상장일은? 4 [검은 손이 노린다] 피싱 범죄, 아는 만큼 피할 수 있다 (완) 5 [특징주] 오토앤 주가 급등세... 이유는? 6 [주유소 가격비교] 10월 3일 기름값 싼곳 어디? 최저가 휘발유 1517원·경유 1679원 7 김민기 의원, ``LH 임대주택 부적격 입주자 5년간 4만명 육박`` 8 최영희 의원 “건강보험공단 고액자산가·소득자 구상금 미납 심각” 9 한 총리 "연대·상생으로 재도약…홍익인간 정신으로 새시대 열어가야 10 배준영 의원 "5년간 국세청 과오납환급금 30조5천억 육박" 최신기사 LG생활건강, ‘벨먼X네고왕 바디 세트’ 옥션 단독 기획전 열어 모두가 행복한 세상, 김천! 어린이큰잔치 개최 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>에버랜드 정문 주차장 예약</t>
-  </si>
-  <si>
-    <t>롯데관광개발, 제주도 카지노 자금 조달 마무리-NH투자 - 이투데이 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 금융·증권 투자전략 롯데관광개발, 제주도 카지노 자금 조달 마무리-NH투자 입력 2019-09-19 08:32 이정희 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 NH투자증권은 롯데관광개발에 대해 19일 내년 4월 완공 목표인 ‘제주드림타워’의 자금조달이 마무리됐으며, 잔금지급에 대한 우려도 해소했다고 평가했다. 투자의견, 목표주가는 밝히지 않았다. 이화정 연구원은 “롯데관광개발은 지난해 파라다이스의 제주도 2개 사업장 중 중문지역 롯데호텔에서 영업 중이었던 면적 1205㎡ 규모의 하우스 카지노를 인수했다”며 “내년 4월 카지노 영업소 소재지를 드림타워가 위치한 노형동으로 변경하고, 면적을 약 4배로 확장할 계획”이라고 밝혔다.그는 “지난해 초 람정제주개발이 제주신화월드 복합 리조트로 카지노를 확장 이전한 것과 같은 방식 카지노 인허가의 경우, 복합리조트 준공과 함께 처리될 예정으로 리스크는 상존하는 상황”이라며 “오는 23일 제주도의회가 임시회를 열어 카지노산업 영향평가를 심의할 예정인 만큼, 귀추를 주목해야 한다”고 짚었다.롯데관광개발은 자금조달도 순항하고 있다고 평가했다. 롯데관광개발은 해외 기관투자자를 상대로 6000만 달러 규모의 4년 만기 CB(전환사채)를 발행했다. 주식 전환가액은 1만3850원으로, 표면이자율 5%, 만기이자율 5%.이며 전환가격조정 조항은 없는 조건이다.이 연구원은 “이번 CB 발행금액은 기존 가이던스 대비 절반 수준이지만, 추가 발행은 없을 것으로 보인다”며 ”드림타워 완공 후 드림타워를 담보한 대출로 추가적 자금 조달이 가능하기 때문이다”고 설명했다.이어 “드림타워 완공 후에는, 현재 녹지그룹이 보유하고 있는 지분(41%)에 대한 소유권 이전과 잔금 지급이 동시에 진행돼야 한다”며 “잔금은 3500억 원 이하로 추정되는데 해당 부분은 이번 CB 발행으로 조달한 자금과 이후 담보대출을 통해 조달되는 자금으로 커버할 예정”이라고 덧붙였다. #롯데관광개발 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 벤처투자 혹한기…몸집보다 수익으로 내실 다진 ‘켄타우로스’ 뜬다 10 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 금융·증권 최신 뉴스 NH농협생명, 보장 확대한 '농업인NH안전보험' 개정 출시 "최근 7년간 불법사금융 피해 신고 4만7371만 건…매년 2배씩 폭증" [인사] ABL생명 롯데손보, ‘let:hero 의료진보험’ 출시…"업(業) 통한 사회공헌 전략" 웰컴저축은행, 보통예금 상품 기본금리 연 0.5%p 인상 [특징주] 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 [이시각 상한가] 오픈엣지테크놀로지(▲3150) - 4일 오전 10시10분 공모주 청약일정 한눈에…미래에셋증권, ‘공모주 투자플래너’ 서비스 오픈 삼성증권, ‘상금 8000만원’ 글로벌 실전투자대회 ‘G6 투자 챌린지’ 개최 [테마 리포트]바이오시밀러 관련주 테마 상승세(+5.02%) 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 10:17 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.삼성출판사 4,150 3.디아이씨 510 4.에이프로젠제약 76 5.KR모터스 91 1.라닉스 1,520 2.오픈엣지테크놀로지 3,150 3.칩스앤미디어 3,200 4.유안타제7호스팩 645 5.오토앤 2,000 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,188,000 +1.27% 이더리움 1,906,000 +1.71% 비트코인 캐시 167,000 -0.6% 리플 656.5 +0.08% 위믹스 2,593 +1.93% 에이다 614.1 -0.03% 이오스 1,697 -0.47% 트론 88.23 -0.68% 스텔라루멘 167.2 -3.74% 비트코인에스브이 69,400 -0.43% 체인링크 10,740 +3.27% 샌드박스 1,196 +1.44% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
-  </si>
-  <si>
-    <t>유인나 멀버리가방</t>
-  </si>
-  <si>
-    <t>제주도 - 텐센트그룹 협력 중국 스마트 관광시장 공략 - 한국스포츠통신 × 전체기사 HOT NEWS! 야구 전체 엘리트, 연맹 생활체육 축구 전체 엘리트, 연맹 생활체육 골프 전체 엘리트, 연맹 생활체육 스포츠종합 전체 엘리트, 연맹 생활체육 문화예술 전체 최근기사 공연일정 엔터테이먼트 문화예술 공연·전시 일정 e스포츠&amp;드론 전체 드론 경제&amp;사회 한국스포츠TV 전체 NEWS 야구 축구 골프 농구/배구 일반 문화예술 스타예감 LIVE중계 엔터테인먼트 라이프 전체 방송/연예 스포츠 정치/경제 사회/일반 매체소개 기사제보 구독하기 편집 : 2022-09-23 09:18 (금) 야구 축구 골프 스포츠종합 문화예술 최근기사 공연일정 엔터테이먼트 경제&amp;사회 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 배우 이하은, ‘모범형사2’ 종영소감 전해… “이은혜’로 다시 만나 행복했어” 웨이브 오리지널 드라마 청춘블라썸 소주연의 '첫사랑' 절절한 티저 공개! 경북 영덕에 FS국제축구테마파크 조성...세계적인 축구 메카로 도약 배우 구혜선, “2년 연속 양주배리어프리영화제 홍보대사 위촉! 2023년 서울형 생활임금 시간당 1만 1,157원 결정…월 233만 원대... 391원 인상3.6%! 2022 ISU 피겨 챌린저 시리즈‘US 인터내셔널 클래식’... 여자싱글 김예림 우승! ENA 동서남Book" '유죄인간' 이석훈, 대역죄인으로 컴백! 죄 많은 목소리로 낭독회 연다! 10월 첫 방송! ‘당신이 소원을 말하면’ 박정연, 지창욱과 강렬한 첫 대면… 팽팽한 신경전 '올해의신인' 아이브, 멜론에서 '일레븐'으로 1억 스트리밍 달성...통산 두 번째 CROSSOVER 콘서트로 가을밤의 클래식 여행... 인천국제공항에서 개최! 기사검색 검색 이전 다음 제주도 - 텐센트그룹 협력 중국 스마트 관광시장 공략 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제&amp;사회 제주도 - 텐센트그룹 협력 중국 스마트 관광시장 공략 한국스포츠통신=배윤조기자 승인 2019.09.09 13:18 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 도-텐센트그룹 업무협약(`18.12.10) 후속조치... 제주관광 마케팅 본격화 (한국스포츠통신=제주0 제주도가 회복세에 있는 중국관광시장 공략을 위해 관광산업 협력 교류 및 마케팅 강화에 나섰다.  제주특별자치도는 지난 9월 2일부터 3일까지 심천에 있는 텐센트그룹 본사를 방문해 제주의 다양한 관광자원에 대한 공동 마케팅 후속사업 방안을 모색했다. 중국 텐센트그룹은 제주 스마트관광협력 공동추진 및 관광산업·전통시장 활성화를 위해 지난해 제주와 업무협약을 체결했던 중국 최대 정보통신(IT) 기업이다.  제주도는 텐센트그룹과 협의하여 올해 상반기 회원수가 11억 명을 넘는 중국 국민 메신저인 위챗에 제주를 직접 홍보할 수 있는 공식계정을 개설했다. 이로써 중국 관광객들은 위챗으로 QR코드를 스캔하면 제주 공식계정을 팔로워할 수 있게 되어 필요한 제주관광정보를 바로 접할 수 있다. 또한 제주 현지에서 필요한 쿠폰도 모바일로 직접다운 받을 수 있게 되었다. 특히 위챗의 빅데이터 기반으로 해외관광에 관심을 갖고 있는 중국인 성향을 분석하여 전략적인 마케팅을 전개할 예정이다. 한일 위챗 파트너대회 및 텐센트그룹 임직원(약 4만명) 워크숍 제주유치 부분에 대해서도 심도 있게 논의했다.  이 외에도 심천문화광전관광체육국 당국 관계자와 중국 현지 강휘여행사 등 여행업계와의 미팅을 통하여 양도시의 관광시장 동향 및 향후 정책방향에 대한 의견도 공유했으며 앞으로 더 많은 교류와 협력을 강화해 나가기로 했다.  문경복 제주특별자치도 관광과장은“중국 최대 정보통신 기업인 텐센트그룹과의 온라인 마케팅 협력교류를 지속적으로 추진해서 밀레니얼 세대를 타깃으로 한 중국인 관광객 유치에 힘쓰겠다.”고 밝혔다. 저작권자 © 한국스포츠통신 무단전재 및 재배포 금지 한국스포츠통신=배윤조기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 배우 이하은, ‘모범형사2’ 종영소감 전해… “이은혜’로 다시 만나 행복했어” 웨이브 오리지널 드라마 청춘블라썸 소주연의 '첫사랑' 절절한 티저 공개! 경북 영덕에 FS국제축구테마파크 조성...세계적인 축구 메카로 도약 배우 구혜선, “2년 연속 양주배리어프리영화제 홍보대사 위촉! 2022 ISU 피겨 챌린저 시리즈‘US 인터내셔널 클래식’... 여자싱글 김예림 우승! ENA 동서남Book" '유죄인간' 이석훈, 대역죄인으로 컴백! 죄 많은 목소리로 낭독회 연다! 10월 첫 방송! ‘당신이 소원을 말하면’ 박정연, 지창욱과 강렬한 첫 대면… 팽팽한 신경전 '올해의신인' 아이브, 멜론에서 '일레븐'으로 1억 스트리밍 달성...통산 두 번째 "미미쿠스" 유영재.조유리.김윤우.나나, “좋은 추억, 행복했다” 합동 종영소감! 감사합니다. "또바기 체육돌봄 골프교실'강습회 실시...사회적 취약계층 청소년(초·중·고)을 대상! KLPGA PLK 챔피언스 클래식 2022 1차전 김민기, 챔피언스투어 생애 첫 우승! [한스통 이슈] 2023 KBO 신인 드래프트 결전의 날이 밝았다 … 롯민석? 엔영우? 10개 구단의 1라운드 최종 선택은? 배우 이하은, ‘모범형사2’ 종영소감 전해… “이은혜’로 다시 만나 행복했어” 웨이브 오리지널 드라마 청춘블라썸 소주연의 '첫사랑' 절절한 티저 공개! 경북 영덕에 FS국제축구테마파크 조성...세계적인 축구 메카로 도약 배우 구혜선, “2년 연속 양주배리어프리영화제 홍보대사 위촉! 2022 ISU 피겨 챌린저 시리즈‘US 인터내셔널 클래식’... 여자싱글 김예림 우승! ENA 동서남Book" '유죄인간' 이석훈, 대역죄인으로 컴백! 죄 많은 목소리로 낭독회 연다! 10월 첫 방송! ‘당신이 소원을 말하면’ 박정연, 지창욱과 강렬한 첫 대면… 팽팽한 신경전 '올해의신인' 아이브, 멜론에서 '일레븐'으로 1억 스트리밍 달성...통산 두 번째 "미미쿠스" 유영재.조유리.김윤우.나나, “좋은 추억, 행복했다” 합동 종영소감! 감사합니다. "또바기 체육돌봄 골프교실'강습회 실시...사회적 취약계층 청소년(초·중·고)을 대상! KLPGA PLK 챔피언스 클래식 2022 1차전 김민기, 챔피언스투어 생애 첫 우승! [한스통 이슈] 2023 KBO 신인 드래프트 결전의 날이 밝았다 … 롯민석? 엔영우? 10개 구단의 1라운드 최종 선택은? 오늘의 주요뉴스 배우 이하은, ‘모범형사2’ 종영소감 전해… “이은혜’로 다시 만나 행복했어” 배우 이하은, ‘모범형사2’ 종영소감 전해… “이은혜’로 다시 만나 행복했어” 웨이브 오리지널 드라마 청춘블라썸 소주연의 '첫사랑' 절절한 티저 공개! 웨이브 오리지널 드라마 청춘블라썸 소주연의 '첫사랑' 절절한 티저 공개! 경북 영덕에 FS국제축구테마파크 조성...세계적인 축구 메카로 도약 경북 영덕에 FS국제축구테마파크 조성...세계적인 축구 메카로 도약 배우 구혜선, “2년 연속 양주배리어프리영화제 홍보대사 위촉! 배우 구혜선, “2년 연속 양주배리어프리영화제 홍보대사 위촉! 많이 본 뉴스 1웨이브 오리지널 드라마 청춘블라썸 소주연의 '첫사랑' 절절한 티저 공개! 2배우 이하은, ‘모범형사2’ 종영소감 전해… “이은혜’로 다시 만나 행복했어” 3경북 영덕에 FS국제축구테마파크 조성...세계적인 축구 메카로 도약 4ENA 동서남Book" '유죄인간' 이석훈, 대역죄인으로 컴백! 죄 많은 목소리로 낭독회 연다! 10월 첫 방송! 52022 ISU 피겨 챌린저 시리즈‘US 인터내셔널 클래식’... 여자싱글 김예림 우승! 6‘당신이 소원을 말하면’ 박정연, 지창욱과 강렬한 첫 대면… 팽팽한 신경전 7CROSSOVER 콘서트로 가을밤의 클래식 여행... 인천국제공항에서 개최! 8"미미쿠스" 유영재.조유리.김윤우.나나, “좋은 추억, 행복했다” 합동 종영소감! 감사합니다. 9'올해의신인' 아이브, 멜론에서 '일레븐'으로 1억 스트리밍 달성...통산 두 번째 10KLPGA PLK 챔피언스 클래식 2022 1차전 김민기, 챔피언스투어 생애 첫 우승! 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 법인명 : (주)한국스포츠통신 발행소 : 서울시 송파구 위례광장로193 대길프라자 305호 대표전화 : 02-6012-1834 팩스 : 070-7500-9101 회사명 : 한국스포츠통신 발행일 : 2017-08-28 등록번호 : 서울 아 04397 등록일 : 2017-03-02 정보간행물 신고번호 : 강남 라 00888 등록일 : 2017-02-22 대표이사 : 배윤조 발행·편집인 : 배윤조 청소년보호책임자 : 황병준 한국스포츠통신 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 한국스포츠통신. All rights reserved. mail to baseballsc@naver.com 위로</t>
+    <t xml:space="preserve"> ‘4선’ 김영진 제주도관광협회장 사임…내년 총선 출마 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 김영진 제주도관광협회장 30일 퇴임…총선 민생속으로 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도관광협회, 서울 신촌서 버스킹 공연...시민 눈길 사로잡아 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도관광협회 2019 제주 관광인 한마음대회 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도, 관광시장 다변화 박차 '동분서주' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3가지 갈치요리 맛볼 수 있는 효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 효리의단골집 '이조은식당' 통갈치구이부터 갈치조림까지 제주도 중문 관광단지 맛집 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도관광협회, 관광사업체 업무능력 향상 교육 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 골프장 이용객 증가...도민.관광객 방문 모두↑ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 10월 관광, 어디까지 가봤니? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35대 제주도관광협회 수장 누가 맡나 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도관광협회, 크리에이터 활용 과정 운영 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 관광지 순환버스 운행할수록 세금 낭비한다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘馬특구’ 제주도 "10월은 말문화 관광의 달"…축제 풍성 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 효리의단골집 제주도 중문 관광단지 맛집 '이조은식당' 세가지 갈치요리 선보여 </t>
+  </si>
+  <si>
+    <t>‘4선’ 김영진 제주도관광협회장 사임…내년 총선 출마 본문 바로가기 이전 페이지 파이낸셜뉴스 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 파이낸셜뉴스 주요뉴스를 볼 수 있습니다. 보러가기 파이낸셜뉴스 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 ‘4선’ 김영진 제주도관광협회장 사임…내년 총선 출마 입력2019.09.30. 오후 2:22 수정2019.09.30. 오후 2:27 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 제주시 갑 선거구에서 자유한국당으로 출마 준비 김영진 제주도관광협회 회장이 30일 회장직을 사임했다. 내년 총선에서 제주시 갑 선거구에서 자유한국당으로 출마를 준비 중인 것으로 알려졌다. [사진=뉴스1] [제주=좌승훈 기자] 김영진 제주특별자치도관광협회장(52)이 30일자로 회장직을 내려놓고 내년 4.15 총선 출마를 공식화했다. 김 회장은 이날 오전 제주웰컴센터에서 기자간담회를 갖고 2011년부터 8년 2개월여간 수행해 온 관광협회 회장직에서 사임한다고 밝혔다. 김 회장은 내년 총선에서 제주시 갑 지역구에서 자유한국당 후보로 출마하는 것으로 알려졌다. 김 회장은 지난 2011년 2월 제주관광협회 회장 보궐선거를 당선된 후 전임 회장의 잔여 임기인 10개월 간 회장직을 수행한 데 이어 2011년·2015년·2019년 회장 선거에서 내리 당선되며 4선에 성공했다. 회장 잔여 임기는 2021년 2월28일까지다. 앞서 김 회장은 4연임과 관련해 일각의 비판을 의식한 듯 회장 임기를 3연임으로 제한하도록 정관을 개정했다고 밝혔다. 아울러 제주관광을 이끌 새로운 시각을 가진 인물이 필요하다는 입장을 피력한 바 있다. 한편 김 회장이 내년 총선 출마의사를 밝힌 제주시 갑 지역구는 더불어민주당에서 현역 4선 강창일 의원 외에 제주도의회 김태석 의장·박원철 의원, 박희수 전 제주도의회 의장이 출마를 준비 중인 것으로 알려졌다. 또 최근 자유한국당 제주도당 위원장을 역임한 구자헌 변호사, 장성철 바른미래당 제주도당 위원장, 고병수 정의당 도당위원장이 출마 의사를 밝혔다. 아울러 고경실 전 제주시장도 자유한국당 출마 예상자로 거론된다. jpen21@fnnews.com 좌승훈 기자 ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ 클릭해, 뉴스 들어간다 [뉴스쿨] ▶ 세상에 이런일이 [fn파스] ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지 좌승훈(jpen21@fnnews.com) Copyright ⓒ 파이낸셜뉴스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 아내 죽은 뒤 발견된 상속 유언.. 남편 '멘붕' 연인 이별 통보에 스님이 6개월간 벌인 만행 계부에게 폭행 당해 숨진 5살 남아, 사건 한 달 전에.. 한국당 의원 "조국 수호? 성폭행범 석방 촛불 들어라" 공중화장실서 가스에 중독된 여고생, 2개월 만에.. 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 파이낸셜뉴스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 파이낸셜뉴스 헤드라인 우리 사주 산 직원들 '신불자' 위기, 카카오뱅크 또다시 '최저가' 연이은 주가 급락세에 카카오뱅크가 자사주 매입과 소각 등 주주환원 정책을 발표했지만 또다시 상장 후 최저가를 기록했다. 장밋빛 미래를 꿈꾸며 수억원을 대출받아 우리사주를 산 카카오뱅크 직원들은 반대매매를 우려할 지경 '코로나 일자리 사라지니' 고용보험 가입자 30만명대로 추락 9월 고용보험 가입자 수 증가폭이 30만명대로 떨어졌다. 월별 가입자 증가폭은 7개월째 감소하고 있다. 11일 고용노동부가 발표한 '고용행정 통계로 본 2022년 9월 노동시장 동향'에 따르면 지난달 말 기준 고용보 저소득층 에너지 바우처 가구당 1만3천원 추가 인상 산업통상자원부는 최근 잇따른 에너지 가격 상승으로 인한 취약계층의 에너지 비용 부담을 덜어주기 위해 에너지 바우처의 가구당 평균 지원단가를 1만3000원 인상(17만2000원→18만5000원)한다고 11일 밝혔다. 野 김용민 "尹정부 조기 퇴진" 주장에.. 정진석 "반헌법적 선동, 선거 불복" 정진석 국민의힘 비상대책위원장이 11일 김용민 더불어민주당 의원의 '윤석열 대통령 조기 퇴진' 주장에 대해 "반헌법적 선동", "선거불복"이라며 규탄했다. 김 의원은 지난 8일 서울 청계광장에서 열린 '윤석열 퇴진' "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보를 하자마자 무참히 살해됐다. 여성은 숨지기 직전까지 아이들만 걱정했다. 지난 6일 MBC '실화탐사대'에서는 지난 5월 발생한 '여수 의처증 살인 사건'을 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 이전 뉴스들 보기 3 다음 뉴스들 보기 파이낸셜뉴스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 파이낸셜뉴스 헤드라인 더보기 우리 사주 산 직원들 '신불자' 위기, 카카오뱅크 또다시 '최저가' 3시간전 '코로나 일자리 사라지니' 고용보험 가입자 30만명대로 추락 53분전 저소득층 에너지 바우처 가구당 1만3천원 추가 인상 1시간전 野 김용민 "尹정부 조기 퇴진" 주장에.. 정진석 "반헌법적 선동, 선거 불복" 58분전 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 4시간전 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 5시간전 파이낸셜뉴스 랭킹 뉴스 정오~오후 1시까지 집계한 결과입니다. 오전 10시~오후 1시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 5시간전 2 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 4시간전 3 신화 신혜성, 음주측정 거부하다 체포..차량은 도난 의심 4시간전 4 우리 사주 산 직원들 '신불자' 위기, 카카오뱅크 또다시 '최저가' 3시간전 5 비트코인 채굴 난도 사상 최고치..이더리움 머지 때문? 2시간전 1 다시 불붙은 공매도 논란…미지근한 금융당국, 분노하는 개미들 8시간전 2 한동훈 "김의겸, 자주 머릿속 상상을 말해 주위에 피해 줘" 6시간전 3 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 4시간전 4 우리 사주 산 직원들 '신불자' 위기, 카카오뱅크 또다시 '최저가' 3시간전 5 김정숙 여사 인도 방문때 靑 요리사도 데려갔다..문체부 명단에 있어 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 정진석 “조선, 일본군 침략으로 망한 것 아냐···이재명, 국민 현혹 말라” 정진석 국민의힘 비상대책위원장이 11일 이재명 더불어민주당 대표가 한·미·일 합동 군사훈련을 반대하는 데 대해 “경박한 역사 인식으로 국민을 현혹시키지 말라”고 밝혔다. 정 비대위원장은 이날 사회관계망서비스(SNS) 정진석 “조선은 썩어서 망해”…野 “친일 앞잡이, 천박” 맹비난(종합) 이재명 더불어민주당 대표의 ‘친일 국방’ 발언에 대한 정진석 국민의힘 비상대책위원장의 반박 발언을 두고 민주당 의원들이 “친일 앞잡이” 등 강도 높은 표현으로 일제히 비판의 목소리를 높였다. 더불어민주당 이재명 대표 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 윤석열 대통령은 11일 “청년들이 임대주택과 현금을 그냥 쥐여줄 것이 아니라 내 집 마련과 자산형성을 할 수 있도록 도와야 한다”고 말했다. 윤 대통령은 이날 오전 용산 대통령실 청사에서 열린 제45회 국무회의 모두 [단독]“어머니, 어머니…” 떨리는 112 전화, 경찰이 눈치챘다 “여보세요. 어머니, 어머니… 어머니, 저 모르겠어요. 여기가 어딘지 모르겠어요." 지난 9월 29일 새벽 4시를 훌쩍 넘긴 야심한 시각. 울산경찰청 112 신고로 한 소년이 전화해 대뜸 ‘어머니’를 연신 애타게 찾 “엄마 아프지 마. 사랑해”… 의처증 남편에 살해된 여성, 딸이 보낸 문자에는 MBC ‘실화탐사대’ 방송화면 갈무리. 전남 여수시의 한 아파트 주차장에서 남편이 휘두른 흉기에 수차례 찔려 사망한 피해자는 구급차에 실려가는 위급한 상황에서도 “우리 아이들은 어떡해”라며 오직 자녀들 걱정뿐이었다. "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 11일 새벽 서울 송파구 탄천2교에서 음주측정거부로 현행범 체포돼 물의를 빚은 그룹 신화 멤버 신혜성(정필교·43)이 혐의를 인정하고 사과했다. 라이브웍스컴퍼니는 이날 오전 공식 SNS를 통해 “신혜성은 전날 오후 같은 번호판 2개…간적 없는 곳서 주차위반 “7달째 영문 몰라” 같은 번호판을 단 2대의 차량이 동시에 존재하는데도 경찰과 지자체가 7달째 영문도 파악하지 못했다는 지적이 나왔다. 10일 KBS는 강원 동해시에서 파란색 화물차(H사 차종)를 운행하는 임모 씨의 제보 사연을 전했다 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% "신혜성, 상습 음주운전…자숙 땐 억대 원정도박" 과거 재조명 그룹 신화의 신혜성이 음주 측정을 거부하다 현행범으로 체포되면서 과거 사고도 재조명되고 있다. 음주 운전 상습범이라는 지적도 나오고 있다. 신혜성은 2007년 서울 압구정동에서 삼성동까지 음주 운전을 하다 적발됐다. 정진석 “조선은 안에서 썩어 망해…일본은 조선과 전쟁 안해” 정진석 국민의힘 비상대책위원장은 11일 “조선은 안에서 썩어 문드러졌고, 그래서 망했다. 일본은 조선왕조와 전쟁을 한 적이 없다”고 말했다. 민주당에선 “일본 제국주의 침략을 정당화했던 이완용 같은 친일 앞잡이들이 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 이재명 "지적하니 종북몰이…해방 후 친일파와 다를 거 없어" 이재명 민주당 대표가 독도 근해에서 이뤄지는 한미일 합동 군사 훈련을 재차 비판하고, 이에 대해 반발하는 여권을 향해 "해방 이후 친일파들이 했던 행태와 다를 게 전혀 없다"라고 맹비난했습니다. 이재명 대표는 오늘( ‘전략 핵탄두’ 미국 3508개 vs 러 2565개… 러,우크라 핵타격땐 ‘아마겟돈’ ■ 10문10답-우크라 전쟁 230일째 美,푸틴 수뇌부 자산 동결하고 친러 외국기업인까지 제재확대 러가 우크라 외 나토국 공격땐 美 참전 불가피‘3차대전’우려 러,세계최대 규모 핵잠수함 보유 최대 120일 연속 작전 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ “여보, 대출이 왜 안나오지?” 금리오르자 1년새 아파트 대출 1억 줄었다[기준금리 3% 시대] “월급도 올랐는데, 대출한도는 왜 줄어든 건가요?” 대기업에 다니는 40대 직장인 A씨는 최근 마이너스 통장 만기가 다 돼 연장하는 과정에서 금리는 4%대에서 6.1%로, 한도는 5000만원에서 4000만원으로 줄었 아이폰 들고 놀이기구 탔을 뿐인데…부재중전화 잔뜩 왜? 미국의 30대 치과의사인 사라 화이트는 지난달 가족과 함께 오하이오주 신시내티에 있는 놀이공원 킹스 아일랜드를 방문했습니다. 화이트는 새로 산 아이폰14 프로를 허리에 매는 가방에 넣은 상태로 롤러코스터를 탔습니다. “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 [단독] 코레일 자회사 직원들 매일 반나절만 근무, 회사는 4년간 몰랐다 직원 6명 임의로 단축근무, 출퇴근 장부는 허위 작성 국민의힘 김학용 “公기관 근태 감시 시스템 마련 시급” 한국철도공사(코레일)의 자회사인 코레일테크 소속 일부 직원들이 4년 동안 마음대로 단축 근무를 해온 것으로 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 “네이버가 콕 찍으니 한국인들 덩달아 100억원 투자.” 네이버가 지난 4일 ‘미국판 당근마켓’으로 불리는 북미 최대 중고거래 플랫폼 ‘포시마크(Poshmark)’ 인수를 발표한 이후 네이버의 주가가 곤두박질쳤지만 근육 노화 더디게 하는 5가지 운동습관 나이가 들면서 우리 몸은 변한다. 근육량은 줄고 신진대사는 느려져 젊을 때처럼 몸매를 유지하기가 쉽지 않다. 나이가 들어도 몸을 많이 움직이는 게 중요한 이유다. 근육이 노화되는 속도를 늦출 수 있는 운동 습관, 미 강민경 쇼핑몰, 얼마나 잘 되길래...65억 매입 건물로 사옥 이전 가수 강민경이 쇼핑몰 사무실 이사 준비로 바쁜 근황을 전했다. 강민경은 지난 9일 자신의 유튜브 채널 '걍밍경'에 '다사다망 강민경 브이로그'라는 제목의 영상을 게재했다. 영상을 시작하기에 앞서 강민경은 “제가 요즘 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 신화 신혜성, 음주측정 거부하다 체포..차량은 도난 의심 그룹 신화의 멤버 신혜성(43·본명 정필교)씨가 음주측정을 거부해 경찰에 체포됐다. 11일 서울 송파경찰서는 이날 오전 1시 40분께 서울 송파구 탄천2교 인근에서 정씨를 도로교통법상 음주측정 거부 혐의로 체포했다고 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 우크라이나 수도 키이우가 크림대교 폭발 이틀만인 10일(현지시간) 공습을 당한 가운데 러시아 서부 벨고로드에서도 큰 폭발음이 들렸다고 로이터통신이 목격자를 인용해 보도했다. 로이터는 “우크라이나 국경에서 가까운 벨고 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 안철수 "유승민·나경원 전당대회 출마해야", 홍준표 "배신 경력자는 가라" 국민의힘 안철수 의원이 차기 전당대회와 관련해 "결론이 뻔한 전당대회가 아니라 팽팽한 긴장이 흐르는 흥행할 수 있는 전당대회가 되어야 한다"면서 "유승민, 나경원 두 분 모두 출마하시기를 희망한다"고 밝혔습니다. 당 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 [이영철의 제주여행] 바람의 신 되어 제주인의 ‘무사안녕·풍요’를 빌다 제주여행 유료 [물리/공학] 머리카락보다 백만배나 작은 세계를 관찰하다...전자현미경! 학종 전공별 탐구 주제 유료 처음으로 맞은 겨울 젊어서 실패는 실패가 아니다! 유료 [공모주프로필] 에스비비테크, 공모가 1만2400원…기관 수요예측 경쟁률은? 더커넥트머니 유료 파이썬 답게 데이터 저장하고 읽기 으뜸이네:투자정보 분석 유료 교육 뉴스 브리핑 - 2022.10.06 학종 전공별 탐구 주제 유료 추가 월 현금흐름 180만원 발생 2호 상가의 선택 기준 들여다보기 스댕의 멘탈갑 투자노트 현금흐름 중심 유료 스마트폰 케이스에도 명품이 있다고? BYTE+ 유료 10/11 오늘의 주요 증시 일정 리치언니 투자노트 내가 이토록 돈을 사랑해서 저항,금기,해방: 여성영화들에 대하여 유료 [물리/의학] 우리나라의 중이온가속기 '라온'! 그런데 가속기가 뭐예요? 학종 전공별 탐구 주제 유료 교육 뉴스 브리핑 - 2022.10.05 학종 전공별 탐구 주제 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 파이낸셜뉴스 예 아니오</t>
+  </si>
+  <si>
+    <t>김영진 제주도관광협회장 30일 퇴임…총선 민생속으로 본문 바로가기 이전 페이지 노컷뉴스 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 노컷뉴스 주요뉴스를 볼 수 있습니다. 보러가기 노컷뉴스 언론사 구독 해지되었습니다. 주요뉴스 정치 사회 경제 IT 세계 생활 사설/칼럼 생중계 랭킹 김영진 제주도관광협회장 30일 퇴임…총선 민생속으로 입력2019.09.30. 오후 2:25 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 "회장직 유지하며 총선 출마는 도의상 맞지 않아""1일부터 도민 민생속으로 들어가 고민 시간 갖겠다"[제주CBS 박정섭 기자] (사진=자료사진)내년 총선 출마를 공식화한 김영진 제주도관광협회장(53)이 퇴임 기자간담회를 통해 "앞으로 도민 민생 속으로 들어가 제주발전에 도움이 될 수 있는 시간을 갖겠다"고 밝혔다.30일 오전 제주웰컴센터에서 퇴임 기자간담회를 가진 김영진 제주도관광협회장은 "44살 제주도관광협회장을 시작해 만 8년8개월간 회장직을 수행하며 많을 것으로 이루려 노력했다"며 "셋방살이를 벗어나 협회 소유의 제주종합비즈니스센터를 만든 게 대표적"이라고 설명했다.그는 "아직 사드 문제가 해결되지 않았지만 협회장 재직시절인 2016년 1585만명의 관광객이 제주에 들어오는 등 정점을 찍기도 했다"며 "앞으로 환경 변수에 능동적으로 대응하며 소통해야 하는 문제가 남아 있다"고 밝혔다.또 "도내 숙박객실이 적정 공급실보다 2만6000여실이 남아돌고 있고, 숙박 유형마다 관련법도 제각각이어서 법과 제도 개선책이 시급하다"며 "관광으로 인한 소득이 도민에게 골고루 분배될 수 있도록 하는 게 질적성장의 핵심"이라고 말했다.내년 총선과 관련해 "관광협회장직을 유지하면서 총선에 출마하는 건 도의상 맞지 않고 협회에도 부담을 주는 만큼 사임한다"며 "내일부터 도민 민생 속으로 들어가 어떤 포지션을 취한지 고민하는 시간을 갖겠다"고 밝혔다.입당에 대해선 "확실히 정리되지 않은 것을 얘기하면 중앙당에 잘못된 신호를 보낼 수 있는 만큼 당 문제는 아직 밝히기 곤란하다. 하지만 중앙과 논의과정을 거치고 있다"고 말했다.김 회장은 지난 4월 "제주관광이 극한 어려움에 처해있는데도 민주당 소속 의원들이 관광업계에 한 게 뭐냐는 푸념이 도내 관광업계들 사이에 크다. 관광산업의 관심도를 끌어올리고, 관광업계의 입장을 대변하겠다"며 출마의 뜻을 밝혔었다.제주시 한림읍 상명리 출신인 김 회장은 제주도생활체육수영연합회 회장과 제주도관광협회 국내여행업분과위원장 등을 거쳐 2011년부터 제주도관광협회장직을 맡아왔다.▶ 확 달라진 노컷뉴스▶ 인싸들의 선택, 노컷뉴스 구독 서비스▶ 노컷이 못한 일, 돈컷은 한다pjs0117@hanmail.net저작권자 © CBS 노컷뉴스 무단전재 및 재배포 금지 제주CBS 박정섭 기자 Copyright ⓒ 노컷뉴스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 바른미래 유승민계 탈당설…고개드는 제3신당 창당론 '서초동 촛불'은 무엇을 의미하는가 홍성 아프리카돼지열병 음성이지만…이번주 최대 고비될 듯 무등산 신양파크호텔 부지에 고급빌라 추진…환경단체 '반발' 정경심 교수 "침묵한다고 언론보도 진실 아냐…성실히 조사받을 것" 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 노컷뉴스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 노컷뉴스 헤드라인 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 핵심요약 안철수 "서울시장 보궐 경선처럼 어려운 국면 바꿀 수 있어야" "尹정부 성공 위해 총선 승리 필수, 저는 헌신할 준비돼" 김기현 "전적으로 동감…총선 승리 바라는 安, 대선 불출마 선언 기대" 차기 당권주자 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 그룹 신화 멤버 신혜성(43·본명 정필교)씨가 음주측정을 거부하다 경찰에 현행범 체포됐다. 경찰은 신씨가 체포 당시 도난 신고가 접수된 차량을 타고 있었던 사실을 확인하고 절도 혐의도 추가해 수사 중이다. 11일 경 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" 핵심요약 "2008년 금융위기 때와 지금은 상황이 달라" 1983년 논문으로 2008년 금융위기 극복 참고 "은행 파산, 위기의 결과라기보단 위기의 원인" "휴대폰 끄고 잠자리 들어…딸이 수상소식 전해" 올해 노벨경 러, 우크라 폭격 '보복' 인정…"푸틴 자존심 상처 때문" 러시아가 10일(현지시간) 우크라이나에 전후 최대 화력을 쏟아부으며 '보복' 조치에 나섰다. 블라디미르 푸틴 러시아 대통령이 '테러'로 규정한 크름대교 폭발 사고 이틀만이다. AP&amp;#8231;로이터통신 등에 따르면, 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 핵심요약 민주당 11일 국회서 긴급안보대책회의 개최 이재명 "해방 이후 친일파 행태와 다를 바 없어" "독도 인근 합동 훈련은 국방참사, 안보 자해" 박홍근 "정진석, 전형적인 식민사관 드러내" 한미일 합동군사훈련에 윤 대통령, '한일훈련' 친일 논란에 "핵위협에 어떤 우려가 정당화되나" 윤석열 대통령은 11일 야당이 동해 상에서 벌인 한미일 합동 훈련을 겨냥해 친일 논란을 제기하는 것과 관련해 "핵 위협 앞에서 어떠한 우려가 정당화될 수 있겠느냐"며 "현명한 국민들께서 잘 판단하실 걸로 생각한다"고 이전 뉴스들 보기 3 다음 뉴스들 보기 노컷뉴스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 노컷뉴스 헤드라인 더보기 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 3시간전 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 3시간전 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" 2시간전 러, 우크라 폭격 '보복' 인정…"푸틴 자존심 상처 때문" 4시간전 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 1시간전 윤 대통령, '한일훈련' 친일 논란에 "핵위협에 어떤 우려가 정당화되나" 3시간전 노컷뉴스 랭킹 뉴스 정오~오후 1시까지 집계한 결과입니다. 오전 10시~오후 1시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 3시간전 2 윤 대통령, '한일훈련' 친일 논란에 "핵위협에 어떤 우려가 정당화되나" 3시간전 3 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 3시간전 4 러, 우크라 폭격 '보복' 인정…"푸틴 자존심 상처 때문" 4시간전 5 "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 1시간전 1 윤 대통령, '한일훈련' 친일 논란에 "핵위협에 어떤 우려가 정당화되나" 3시간전 2 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 3시간전 3 대통령실 "욱일기? 불났는데 이웃 힘 합치는 건 당연" 3시간전 4 [속보]尹, '한일훈련' 질문에 "핵위협에 어떤 우려가 정당화되나" 4시간전 5 유승민 움직이자 당 술렁이는 이유…승리 위한 두 가지 조건 8시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 재생하기 재생시간02:37 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 당뇨병 환자의 상당수는 과체중이나 비만인 경우가 많은 데요. 그런데 애초 당뇨약으로 개발됐지만, 체중 감량 효과가 커 비만 치료제로 크게 각광받는 약이 미국에서 잇달아 나오고 있습니다. 비만약으로 대박을 터뜨리게 된 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 국내에서 가장 긴 다리인 인천대교에서 최근 5년간 40건이 넘는 투신 사고가 발생해 30명이 목숨을 잃은 것으로 나타났다. 특히 지난해부터 사고가 급증하고 있어 대책 마련이 시급하다. ● 끊이지 않는 인천대교 투신 안철수 "유승민·나경원 전당대회 출마해야", 홍준표 "배신 경력자는 가라" 국민의힘 안철수 의원이 차기 전당대회와 관련해 "결론이 뻔한 전당대회가 아니라 팽팽한 긴장이 흐르는 흥행할 수 있는 전당대회가 되어야 한다"면서 "유승민, 나경원 두 분 모두 출마하시기를 희망한다"고 밝혔습니다. 당 [집값 버블붕괴의 시작] ①세종·인천 와르르…서울 청약불패 옛말 부동산 시장이 얼어붙으면서 집값은 떨어지고 거래절벽 현상이 극심해지고 있다. 로또 분양은 옛말이 됐고 서울 청약 열기도 이미 가신 지 오래다. 집값 폭등 원인인 '저금리, 과잉 유동성'의 시대가 끝나고 '금리 인상, 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 “네이버가 콕 찍으니 한국인들 덩달아 100억원 투자.” 네이버가 지난 4일 ‘미국판 당근마켓’으로 불리는 북미 최대 중고거래 플랫폼 ‘포시마크(Poshmark)’ 인수를 발표한 이후 네이버의 주가가 곤두박질쳤지만 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 정진석 “조선, 일본군 침략으로 망한 것 아냐···이재명, 국민 현혹 말라” 정진석 국민의힘 비상대책위원장이 11일 이재명 더불어민주당 대표가 한·미·일 합동 군사훈련을 반대하는 데 대해 “경박한 역사 인식으로 국민을 현혹시키지 말라”고 밝혔다. 정 비대위원장은 이날 사회관계망서비스(SNS) "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 영국 가디언지 "침공 실패와 크림대교 폭발에 대한 절박한 답변" 최윤정 특파원 = 러시아가 우크라이나 키이우 등을 공습한 것은 군 내부 비판과 블라디미르 푸틴 러시아 대통령의 자존심 때문이라는 분석이 나왔다. 영국 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 여성 치매는 ‘이 효소’ 때문...남성보다 2배 많은 이유 여성이 남성보다 치매 중 알츠하이머병에 약 2배 더 잘 걸리는 것은 특정 효소 때문인 것으로 밝혀졌다. 미국 케이스웨스턴대 연구팀은 생쥐와 인간의 뇌 조직에서 알츠하이머병과 관련된 차이점을 설명할 수 있는 증거를 발 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 신화 신혜성, 도난차량서 음주측정 거부하다 체포 신화의 신혜성이 음주측정을 거부하다가 체포됐다. 신씨는 도난 신고가 들어온 차량을 타고 있었다. 11일 서울 송파경찰서는 이날 오전 1시 40분께 송파구 탄천2교에서 신씨를 도로교통법상 음주측정거부, 절도 혐의로 체 근육 노화 더디게 하는 5가지 운동습관 나이가 들면서 우리 몸은 변한다. 근육량은 줄고 신진대사는 느려져 젊을 때처럼 몸매를 유지하기가 쉽지 않다. 나이가 들어도 몸을 많이 움직이는 게 중요한 이유다. 근육이 노화되는 속도를 늦출 수 있는 운동 습관, 미 ‘전략 핵탄두’ 미국 3508개 vs 러 2565개… 러,우크라 핵타격땐 ‘아마겟돈’ ■ 10문10답-우크라 전쟁 230일째 美,푸틴 수뇌부 자산 동결하고 친러 외국기업인까지 제재확대 러가 우크라 외 나토국 공격땐 美 참전 불가피‘3차대전’우려 러,세계최대 규모 핵잠수함 보유 최대 120일 연속 작전 정진석 “조선은 안에서 썩어 망해…일본은 조선과 전쟁 안해” 정진석 국민의힘 비상대책위원장은 11일 “조선은 안에서 썩어 문드러졌고, 그래서 망했다. 일본은 조선왕조와 전쟁을 한 적이 없다”고 말했다. 민주당에선 “일본 제국주의 침략을 정당화했던 이완용 같은 친일 앞잡이들이 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 [단독] 코레일 자회사 직원들 매일 반나절만 근무, 회사는 4년간 몰랐다 직원 6명 임의로 단축근무, 출퇴근 장부는 허위 작성 국민의힘 김학용 “公기관 근태 감시 시스템 마련 시급” 한국철도공사(코레일)의 자회사인 코레일테크 소속 일부 직원들이 4년 동안 마음대로 단축 근무를 해온 것으로 강민경 쇼핑몰, 얼마나 잘 되길래...65억 매입 건물로 사옥 이전 가수 강민경이 쇼핑몰 사무실 이사 준비로 바쁜 근황을 전했다. 강민경은 지난 9일 자신의 유튜브 채널 '걍밍경'에 '다사다망 강민경 브이로그'라는 제목의 영상을 게재했다. 영상을 시작하기에 앞서 강민경은 “제가 요즘 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% 택시 떠나는 이유 있네...“택시 연매출 3천만원...배달사업자 3분의 1” 택시 영업익도 배달업의 44%…택시 영업비용 56% 연료비 구자근 의원, 소상공인 운수업 실태분석…“택시 피해 심각” 택시 기사의 연간 매출이 3000만 원 수준으로 퀵·배달대행 서비스에 종사하는 소상공인과 비교해 ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 양발 운전, 어떻게 생각하십니까? 자동변속 자동차 운전에 양발을 쓰는 것에 대한 찬반 논쟁이 인터넷 커뮤니티를 중심으로 벌어지고 있다. 반대하는 쪽은 “운전면허를 뺏어야 한다”는 등 격앙된 반응을 보이고 있지만, 양 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 러시아가 크림대교 폭발 사고 이후 이틀 만인 지난 10일(현지시간) 우크라이나 수도 키이우 등 주요 도시에 미사일 공격을 퍼부은 가운데 공습 당시 다리를 건너다 가까스로 목숨을 건진 시민의 모습이 포착됐다. 10일 아이폰 들고 놀이기구 탔을 뿐인데…부재중전화 잔뜩 왜? 미국의 30대 치과의사인 사라 화이트는 지난달 가족과 함께 오하이오주 신시내티에 있는 놀이공원 킹스 아일랜드를 방문했습니다. 화이트는 새로 산 아이폰14 프로를 허리에 매는 가방에 넣은 상태로 롤러코스터를 탔습니다. "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 해야 하는데 하기 싫을 때 내가 하는 마음의 전환 버킷다이어리 VucketDiary 유료 강원도가 레고랜드 빚 안 갚는 진짜 이유 삼프로TV 하이라이트 제안서 1장으로 꿈을 그려주는 방법(부산시 입찰PT 성공) 제일기획 연봉상위1% PPT 비밀노트 동영상 기사 유료 [셜록퀴즈 범죄추리] 단 하나의 단서! 명함 속 진짜 범인은? 퀴즈에브리띵 프리미엄 #11. 시장 침체가 지속되고 있는 2022. 10월 1주(10. 3일 기준) 주간 아파트 시장 동향 분석 - 매매 도시부자김사부 유료 (서울 모아타운 가능성 분석) 서울 송파구 삼전동 166-1 일대 젤리 부동산 연구소 유료 초연하다 출근전읽기쓰기 유료 [차읽남] 22년 10월 7일 미코 "역배열 우햐항 차트의 주의점과 이번 에는 다른 점" + 해설 VOD 업로드 유목민의 시그널리포트 동영상 기사 [이영철의 제주여행] 바람의 신 되어 제주인의 ‘무사안녕·풍요’를 빌다 제주여행 유료 [물리/공학] 머리카락보다 백만배나 작은 세계를 관찰하다...전자현미경! 학종 전공별 탐구 주제 유료 처음으로 맞은 겨울 젊어서 실패는 실패가 아니다! 유료 [공모주프로필] 에스비비테크, 공모가 1만2400원…기관 수요예측 경쟁률은? 더커넥트머니 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 노컷뉴스 예 아니오</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울 신촌서 버스킹 공연...시민 눈길 사로잡아 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 13:07 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 서울 신촌서 버스킹 공연...시민 눈길 사로잡아 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도관광협회, 서울 신촌서 버스킹 공연...시민 눈길 사로잡아 기자명 차의성 기자 입력 2019.09.30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 지난달 29일 제주도와 제주특별자치도관광협회는 서울 신촌 대학가에서 제주관광 버스킹공연을 진행했다. 제주도와 제주관광협회가 서울 신촌에서 벌인 버스킹 공연이 서울 시민들의 눈길을 사로잡았다. 지난 29일 제주도와 제주특별자치도관광협회는 오후 6시부터 8시까지 서울 신촌 대학가에서  제주관광 버스킹공연을 진행했다. 일본 불매운동 여파로 분산된 내국인 여행수요의 제주 방문을 유도하고자 최근 여행시장의 주 소비층으로 떠오른 밀레니얼세대를 타겟으로 연세대, 이화여대 등 주요 대학이 위치한 신촌 한복판에서 진행된 이번 거리공연은 주말을 맞이해 서울시내 핫플레이스를 찾은 시민들의 큰 호응을 이끌었다. 이번 버스킹공연은 제주하면 떠오르는 대중가요를 메인으로 한 어쿠스틱 밴드공연과 제주 해녀춤을 재창작한 현대무용 퍼포먼스 및 조회수 400만, 구독자 31만명의 인기 유튜버 ‘달지’를 섭외, SNS 제주여행 연관 해시태그를 소재로 한 힙합공연을 선보이는 등 음악을 활용한 공감대를 형성해 제주관광의 긍정적 효과를 불러일으키는 감성마케팅을 전개하고자 노력했다. 이와 더불어 개그맨 조승희의 사회로 유네스코 세계자연유산 지정 제주 대표 관광지와 제주사투리 등 제주의 역사와 전통문화 등을 주제로 한 제주관광퀴즈 진행과 SNS 주사용자인 2030세대를 대상으로 제주여행 오픈마켓 탐나오와 연계한 오프라인 바이럴 마케팅을 펼치는 등 제주관광 홍보에 주력했다. 차의성 기자 justina4u@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 2019 제주 관광인 한마음대회 &lt; 사회종합 &lt; 사회 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 사회 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 2019 제주 관광인 한마음대회 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회종합 제주도관광협회 2019 제주 관광인 한마음대회 기자명 고 미 기자 입력 2019.09.29 15:49 수정 2019.09.29 16:41 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 고낙천 호텔신라상무.방한숙 방림원 원장 문광부장관상 고낙천 ㈜호텔신라 상무제주특별자치도관광협회(회장 김영진)는 28일 제주시 애향운동장에서 도내 관광종사자 및 유관기관 관계자 등 1000여명이 참여한 가운데'2019 제주관광인 한마음대회'를 열었다. 제46회 세계관광의 날을 기념한 이날 행사에서는 관광산업 발전에 기여한 공로로 고낙천 ㈜호텔신라 상무와 방한숙 방림원 원장(사진 오른쪽)이 문화체육관광부장관상을 받았다.참가 관광인들은 중국의 사드 보복과 한일 관계 경직, 경기 둔화 장기화 등 불안정한 대내외 환경 극복을 위한 공동 노력을 다짐했다.방한숙 방림원 원장관광의 날 유공 수장자는 다음과 같다.▲제주특별도지자상 △김수연 지제이투어㈜대표 △부철희 ㈜부민가자투어 팀장 △이지춘 아모렉스리조트 관리부장 △성주엽 생각하는 정원 대표 △허왕진 퍼시픽랜드㈜제주관광해양수족관 차장 △김선희 제주쇼핑아울렛 대표 △정준호 삼대국수회관본점 대표 △김순금 제주씨월드㈜ 과장 △문창호 탐라승마장 대표 △신승애 ㈔제주도중국어관광통역안내사협회 기획홍보이사 △문양희 ㈔한국관광통역안내사협회제주지부 안내사 △박소영 ㈔도국내여행안내사협회 운영위원▲제주특별자치도의회 의장상 △오승진 한라렌트카㈜팀장 △김진우 우리들CC㈜우리들리조트제주 팀장 △이동현 그랑블루제주알앤지㈜(아덴힐 과장 △부기호 ㈜제주실사 대표. 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광시장 다변화 박차 '동분서주' &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' 2022-10-11 13:07 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광시장 다변화 박차 '동분서주' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 관광시장 다변화 박차 '동분서주' 기자명 김승환 기자 입력 2019.09.26 15:06 수정 2019.09.26 15:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 현지 상담회, 홍보관 운영 통해 동남아·구미주 시장 공략 9.28~29 베트남 한·베 한국문화관광대전, 10.1~4 프랑스 탑 레사 국제관광박람회 ▲ 제주도가 제주의 가을과 겨울 콘텐츠를 동남아와 구미주 시장에 알리기 위해 도내 12개 관광 사업체와 함께 오는 27~28일까지 쿠알라룸프에서 제주관광설명회를 개최한다. (제주=국제뉴스) 김승환 기자= 제주도가 억새, 한라산, 올레길, 감귤 등 가을과 겨울 콘텐츠를 앞세운 관광 마케팅으로 동남아와 구미주 시장 공략에 나섰다.제주도와 제주관광공사, 제주관광특별자치도관광협회는 도내 12개 관광 사업체와 함께 제주관광마케팅단(단장 강영돈)을 구성해 오는 27일부터 28일까지 말레이시아 쿠알라룸푸르에서 '제주관광 설명회'를 개최한다.이어 오는 28일과 29일에는 베트남 호치민에서 개최되는'한베 한국문화관광대전'에 참가해 현지인과 관련 업계에 제주의 매력을 알릴 예정이다.또 10월 1월부터 4일까지 프랑스 파리에서 개최되는'탑 레사(TOP RESA) 국제관광박람회'와 10월 4일부터 6일까지 필리핀 마닐라에서 열리는'2019 한국문화관광대전'에도 참가한다.이를 통해 동남아 지역 뿐 아니라 구미주 지역까지 제주 관광시장 확대를 위한 마케팅 홍보 활동을 펼친다.유네스코 생물권보전지역, 세계자연유산, 다양한 계절 풍경을 볼 수 있는 올레길 투어 등 자연환경과 유네스코 인류무형문화유산으로 지정된 해녀문화 등을 통해 제주의 매력 알리기에 박차를 가해 나간다.27일부터 28일까지 말레이시아 쿠알라룸푸르 제이더블유 메리어트 호텔에서 개최 예정인 제주관광설명회에는 도내 12개 관광사업체(여행사 4곳, 관광지 4곳, 호텔업 3곳, 렌터카 1곳)와 현지 80여 업체와의 상담을 통해 구체적인 협업 사항을 논의할 계획이며 현지 소비자 500여명을 대상으로 제주관광 매력을 소구할 예정이다. 특히 본 행사와 관련해서 12개 현지 미디어와 함께 1백만 명의 팔로워를 보유한 말레이시아 가수 슈피안 슈해미(Sufian Suhaimi)가 자발적으로 홍보에 동참할 뜻을 알리며 가을 올레길 투어 홍보에 나설 계획이다.28일과 29일, 호찌민시 최대 번화가인 응웬 훼 거리에서 개최되는 한·베 한국문화관광대전에서는 도내 관광사업체 5곳이 함께 참여하여 제주관광홍보관 운영을 통한 체험행사와 상담을 진행하며 제주도의 인지도를 높이는데 주력한다.10월 4일부터 6일까지 필리핀 마닐라 메가몰에서 개최되는 한국문화관광대전 2019에서는 필리핀 현지 소비자 대상 홍보관을 운영하고 현지 업계와의 상담회와 설명회를 통해 필리핀 수도 마닐라에 제주 관광정보를 적극 소개할 예정이다.이와 더불어, 10월 1일부터 4일까지 프랑스 파리 엑스포에서 개최되는 프랑스 최대 국제관광박람회인 탑 레사(TOP RESA)에 처음으로 참가하여 제주관광 시장을 개척한다는 전략이다.한편  2019년 7월말 기준 제주방문 동남아 6개국 관광객 수 12만1020명으로 전년대비 2.8% 증가했고, 말레이시아, 싱가포르, 인도네시아, 베트남, 태국, 필리핀도 7만709명으로 전년대비 81.9% 증가했다 김승환 기자 qjqantk0603@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 BPA, 부산항 항만물류통합플랫폼 모바일 앱(올컨e) 사용 장려 위한 컨테이너 삼남매 캐릭터 공개 최신뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 포토뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>3가지 갈치요리 맛볼 수 있는 효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광사업체 업무능력 향상 교육 &lt; 동정 &lt; 사람들 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 13:05 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 관광사업체 업무능력 향상 교육 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사람들 동정 제주도관광협회, 관광사업체 업무능력 향상 교육 기자명 이동건 기자					(dg@jejusori.net) 입력 2019.09.25 15:21 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도관광협회는 지난 24일 오후 3시 ‘제1차 관광사업체 종사자대상 업무능력 향상교육’을 진행했다고 밝혔다. 도내 관광사업체 종사자 20여명이 참가한 교육에는 박미경 NEWPS 아카데미 원장이 ‘자기성향분석을 통한 고객응대 방법’을 주제로 성향분석 DISC 진단·해석을 통한 기업 내부 소통, 고객 응대 방법에 대해 강연했다. 협회 관계자는 “업무능력 향상교육을 통해 도내 관광 사업에 종사원들의 전문성과 경쟁력있는 서비스 제공을 통해 제주 관광 만족도를 높이겠다”고 말했다. 협회는 오는 10월15일에 ‘개별관광객 유치를 위한 온·오프라인 홍보방법’을 주제로 2차 교육을 진행할 예정이다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 제주답게 만들기를~~ 2 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 3 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 4 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 5 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 6 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 7 못간다 8 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 9 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 10 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 골프장 이용객 증가...도민.관광객 방문 모두 늘어 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 골프장 이용객 증가...도민.관광객 방문 모두 늘어 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 골프장 이용객 증가...도민.관광객 방문 모두 늘어 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.09.26 12:03 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 올해 상반기 제주지역 골프장 이용객이 지난해 같은 기간에 비해 크게 증가했다.제주특별자치도는 올해 상반기 골프장 이용객 분석 결과 98만9750명으로, 지난해 같은 기간에 비해 18.3% 증가했다고 26일 밝혔다.상반기 이용객 가운데 도민은 47만3840명으로 지난해보다 23.9%, 관광객은 51만5910명으로 13.5% 증가했다.제주도는 "당초 개별소비세 감면폐지 여파로 올해 골프관광객 감소를 예상했으나, 골프관광객 유치를 위해 민관협력체계를 구축해 공격적인 마케팅 실시한 결과"라는 입장을 밝혔다.제주도는 골프장 이용객 증가의 주요 원인으로는 전년대비 온화한 날씨와 골프장별 할인상품 개발, 중국단체 골프대회개최, 사은행사 실시, 평생회원권분양과 더불어 지역단체 유치 마케팅활동 추진 등을 꼽았다.앞서 지난 3월과 8월 제주도는 수도권 대규모 골프박람회에 참가해 제주골프 홍보부스 운영을 통해 제주골프상품의 우수성을 홍보하는 등 골프업계 및 관광협회와 함께 세일즈 마케팅도 추진한 바 있다.제주도 관계자는 "감귤산업과 더불어 지역기반산업 중 하나인 골프산업육성을 위해 다각적이고 공격적인 마케팅활동을 한층 더 강화할 계획"이라고 밝혔다.한편 제주도는 중앙정부와 지역 국회의원을 대상으로 제주지역 회원제 골프장 개별소비세 감면을 적극 요청했고, 정부는 지난 4일 제주도와 고용위기지역 및 산업위기대응 특별지역 소재 회원제 골프장이용에 대한 개별소비세(75%)감면을 추진한다는 내용을 담은 '2019 하반기 경제 활력 보강 추가대책'을 발표한 바 있다.제주도는 약 237억 원의 개별소비세 감면(2018년 내장객 150만 명 기준)이 골프관광객 증가와 이를 통한 골프장의 경영개선, 고용개선, 연관업종 활성화로 이어져 지역경제 파급 창출효과 등이 발생할 것으로 기대감을 나타냈다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 10월 관광, 어디까지 가봤니? - 뉴스제주 × 전체기사 사회 전체 사건사고 일반 포토 날씨 뉴스제주초점 기업·인물탐방 행정 전체 제주도청 제주도의회 제주시청 서귀포시청 유관기관 읍면동 정치 전체 선거 정당 국회 의정활동 시민단체 교육 전체 교육청 교육행정 학교소식 경제 전체 제주도 제주시 서귀포시 도외 일반 문화 전체 제주도 제주시 서귀포시 도외 일반 관광 전체 제주도 제주시 서귀포시 도외 일반 동정 전체 도청 도의회 제주시 서귀포시 기타 연예 스포츠 동영상 오피니언 전체 기자수첩 칼럼 기고 시민기자 미디어부 뉴스제주TV 뉴스제주 시작페이지로 즐겨찾기 추가 한국어 영어 일본어 중국어 처음으로 로그인 회원가입 모바일웹 전체 사회 사건사고 포토 날씨 뉴스제주초점 기업·인물탐방 행정 제주도청 제주도의회 제주시청 서귀포시청 유관기관 사업소 읍면동 정치 선거 정당 국회 교육 교육청 교육행정 학교소식 경제 제주도 제주시 서귀포시 도외 문화 제주도 제주시 서귀포시 도외 스포츠 오피니언 기자수첩 칼럼 기고 시민기자 관광 제주도 제주시 서귀포시 도외 일반 동정 도청 도의회 제주시 서귀포시 기타 후원안내 날씨 기사검색 검색 최종편집 : 2022-10-11 11:57 (화) 이전 다음 제주도 10월 관광, 어디까지 가봤니? 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 관광 제주도 10월 관광, 어디까지 가봤니? 이감사 기자 승인 2019.09.23 11:12 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 제주관광공사 제주도내 10월 명소 10곳 선정 제주관광공사가 올해 제주여행 10월 명소 10곳을 선정했다. '언제나 반겨주는 아늑한 그곳, 아도록한 10월 제주'라는 테마로 관광지, 자연, 체험, 축제, 음식 등 다양한 분야가 담겼다. 제주를 찾는 관광객은 물론이거니와 도민들도 가족들과 연인들과 함께 둘러보면 좋은 추억을 새길 수 있는 곳이다. ▲서귀포시 안덕면 대평리 ©Newsjeju #. 서귀포시 안덕면 대평리 한자로 대평(大坪)이라 쓰는 이 마을은 제주어로 난드르, '너른 들'이다. 안덕면 마을 중 가장 작지만 음식점과 숙박시설이 많고, 중문 관광단지에서 10분 거리다. 동해용왕 아들의 전설이 깃든 박수기정은 이 마을의 명물이다. 거대한 병풍처럼 둘러친 해안절벽은 무려 100미터에 달하는 높이로 압도감을 자랑한다. 노을 걸린 저녁 하늘이 전하는 감동 역시 진하고 묵직하다. 우거진 소나무 길을 따라 박수기정 정상에 오르면 마을과 대평 포구, 산방산을 조망할 수 있다. 형제섬과 마라도, 가파도까지 보인다. 올레 8코스의 끝이자 9코스의 시작점인 대평 포구의 빨간 소녀등대가 올레꾼들의 안녕을 빌어주고, 마을 곳곳 자리 잡은 조용한 카페들은 지친 여행객에 위안을 안긴다. ▲ 개오름 ©Newsjeju #. 개오름(서귀포시 표선면 성읍리 2974) 개오름은 한자 蓋(덮을 개)를 차용해 밥그릇 뚜껑 혹은 양산 모양이라는 설에 무게가 실린다. 분화구가 없는 원추형의 오름은 남북으로 다소 펑퍼짐한 모양새로 오르기에 크게 어렵지 않다. 삼나무와 편백나무의 응원을 받으며 야자수 매트를 따라 20분 정도 오르면 정상에 도착한다. 비치미 오름과 영주산 사이에 자리 잡아 유명세에서 조금 밀릴지 몰라도 성읍 저수지를 비롯해 영주산과 안돌오름 등 여러 정상의 풍경을 마주하며 벅찬 감동이 밀려온다. 오름으로 향할 때 마을 안길과 목장을 지나게 되는데 낯선 이의 방문에도 익숙한 듯 무심한 말들과의 조우도 따뜻한 순간으로 기억될 것. #. 가을 제주의 단풍길 &amp; 억새길 (‣영실매표소 : 서귀포시 영실로 246 / ‣1100고지 : 서귀포시 색달동 산 1-2 ‣천왕사 : 제주시 1100로 2528-111 / ‣금백조로 : 서귀포시 성산읍 금백조로 / ‣닭머르해안 : 제주시 조천읍 신촌리) 가을 제주를 찾은 이들에게 단풍 또한 강렬한 인상을 남긴다. 국내에서 가장 늦게까지 단풍을 감상할 수 있는 제주의 단풍 명소 역시 한라산. 모든 등반 코스가 아름답지만, 등반 초보자에게는 영실코스가 적격. 코스가 비교적 짧고 걷기 쉬운 대신 정상 등반은 불가능하니 사전 확인은 필수. 영실탐방로 대신 존자암지 가는 길을 택해도 왕복 40분의 황홀한 눈 호강이 가능하다. 여기에 1100고지나 516도로, 1100로 중 천왕사 가는 길은 차를 타고 단풍을 감상할 수 있어 제주에서의 추억에 색을 더한다. 단풍과는 또 다른 매력 품은 억새 역시 볼거리를 제공한다. 서귀포 동부의 중산간, 금백조로는 넘실거리는 은빛 억새 뒤로 풍력발전기가 돌아가고 조천읍 닭머르 해안에서는 억새와 바다를 한눈에 담을 수 있다. 오름에서, 숲길에서, 제주 곳곳 은빛 억새를 만나는 매 순간의 기억도 환한 은빛으로 남을 것. ▲ 에코파티 ©Newsjeju #. 2019 하반기 에코파티(문의 및 예약 : www.tamnao.com) 최근 여행의 대세는 생태와 공정여행이다. 마을 사람들이 전하는 옛이야기와 곶자왈 안내, 문화공연, 지역 특색을 담아낸 만들기와 음식 등 올 상반기도 에코파티는 사랑을 받았다. 이어지는 하반기 제주 에코파티는 10월 중 9개 마을이 8번의 파티를 연다. 곶자왈 마을 선흘리에서 습지와 곶자왈을 오감으로 느낀다면 신들의 고향 송당에서는 오름과 메밀밭을 작품으로 만들어 본다. 어멍아방 잔치마을 신풍리에서 집줄놓기와 염색체험이 마련되고, 저지리에선 새소리 피리를 불며 오름 트레킹에 도전한다. 이밖에도 조랑말 마을 가시리에 동백마을 신흥, 항몽유적지 옆 유수암과 바다마을 세화&amp;평대까지. 마을마다 프로그램은 달라도 로컬푸드 체험은 기본 장착. 참가 인원과 비용이 다르므로 일정을 살펴 미리미리 예약해야 한다. #. 제주 10월 축제들 ‣제주음식박람회 : 10월 4일~6일 / 제주 시민복지타운 광장 일원 ‣탐라문화제 : 10월 9일~13일 / 제주시 탐라문화광장 일원 ‣올레걷기축제 : 10월 31일~11월2일 / 올레8,9,10코스(사전신청시 참가비 할인, 현장접수가능) ‣고마로마문화축제 : 10월 18일~19일 / 신산공원 일대 ‣칠선녀축제 : 10월 4일~6일 / 천제연폭포, 중문관광단지 일원 풍성한 계절의 정점에도 제주도는 즐길거리가 고갈될 줄 모른다. 제주의 10월을 빼곡하게 채우는 축제만 따라가도 제주여행에서 얻을 추억거리는 충분하다. ▲지역 특색을 살린 로컬 푸드와 요리경연 ▲유명 셰프 초청 시연과 축하무대가 있는 음식박람회 ▲자연과 사람이 탐나는 제주문화를 자랑하는 도심 속 민속축제 탐라문화제 ▲올레 8코스~ 10코스 약천사에서 논짓물까지, 제주 서남부의 아름다운 풍광을 벗삼은 올레걷기 축제 ▲천제연 폭포 전설을 테마로 한 칠선녀 축제 ▲과거 말을 방목하던 고마장에서 지금은 도심이 된 고마로의 마문화 축제 등이 있다. 주의사항은 지치지 않는 체력을 지참하고 오는 것이 좋다. #. 도내 순례길들 + 템플스테이 ‣천주교 순례길 정보 : peacejeju.net ‣기독교 순례길 정보 : jj.local.cbs.co.kr ‣제주불교 성지순례 절로 가는 길 : www.jeolro.kr ‣템플스테이 참고사이트 : www.templestay.com 왁자지껄하고 화려한 관광지보다 조용히 나를 돌아보고 위로하고 싶다면 순례길은 어떨까. 멀리 산티아고까지 갈 필요 없이 제주면 충분하다. 천주교와 기독교 불교까지 3대 종교에서는 제주에 각각 5개~6개의 순례길 코스를 완성하고 마음의 평화와 지혜를 찾는 이들을 맞이한다. 어느 계절에 걸어도 좋은 이 길에 10월의 가을빛을 더하면 더없이 풍성한 감동이 텅 빈 마음도 이내 채워줄 것. 특히 관음사와 약천사를 비롯한 도내 4개 사찰에서는 천혜의 자연환경 안에서 불교문화를 체험하고 참선과 다도 등 다양한 경험으로 나를 일으켜 세우는 템플스테이 프로그램도 운영 중이다. ▲ 진곶내 ©Newsjeju #. 진곶내(서귀포시 이어도로 389), 도리빨(서귀포시 대포동 2492) 알려지지 않길 바라는 나만의 명소가 있으나 세상에 영원한 비밀은 없는 법, 언젠가는 알려진다. 외계 행성을 연상시키는 기괴한 바위 병풍 사이로 바다와 몽돌이 펼쳐지고, 그 가운데 우뚝 솟은 바위에 올라 세상의 주인공이 될 수 있는 '진곶내'. 이 숨겨진 작은 해변은 체력과 모험심을 겸비한 어른들에게 적당하다. 심한 경사에 계곡을 걸어야 하므로 날씨와 물때 고려는 필수다. '도리빨'은 서귀포 중문 단지 축구장에 차를 세우고 옆길로 들어 갈림길을 만나면 1분 안에 나온다. 한적한 바다에서 스노클링을 즐기려는 이들이 소중하게 간직해 온 이 비밀의 명소 역시 공유화까지 그리 오래지 않을 것 같다. 덜 알려진 만큼 안내는 부족한 편이니 출발 전 정확한 위치를 확인해야 더 길치소리를 듣지 않는다. ▲ 김영수도서관 ©Newsjeju #. 김영수도서관(제주시 중앙로 8길 18 / 개방시간 : 평일 17시 이후, 주말 9~18시) 100년 넘는 역사를 자랑하는 제주북초등학교. 20회 졸업생 김영수 동문이 기증한 학교 도서관이 원도심 도시재생 프로그램으로 새로 태어났다. 고즈넉한 한옥 건물에 책 읽기와 토론이 가능한 아기자기한 방과 목관아가 훤히 보이는 2층 서가를 갖추고 학생들과 주민의 가슴에 글 꽃을 피워낸다. 학기 중 낮 시간에는 학생들에게, 평일 5시 이후와 주말 오전부터 모두에게 열린 문화사랑방이 된다. ▲ 서귀포관광극장 ©Newsjeju #. 서귀포 관광극장(서귀포시 이중섭로 25), 제주아트센터(제주시 오남로 231) 영화 상영부터 초등학교 학예회, 면민 단합대회 등 1960년대 서귀포 최초의 극장이자 각종 문화행사의 장이던 서귀포 관광극장. 20세기 말 이후 방치됐던 이곳이 십여 년 만에 활기를 되찾았다. 뻥 뚫린 지붕처럼 누구에게나 열린 문화공간으로 주말에는 공연 위주, 평일엔 예술 강좌 등 각종 프로그램이 운영된다. 허름한 외관에 기대 없이 왔다가 감탄하고 간다는 믿거나 말거나 설이 있다. 반면, 1100여 석에 첨단 무대장치를 갖춘 제주아트센터는 아이들을 위한 클래식공연에서 연극제, 교향악단과 대중가수의 무대까지 다양한 장르를 두루두루 선보이는 문화 공간이다. 수준 높은 초대 공연으로 눈높이와 착한 관람료가 준비됐다. 도민은 물론 바쁜 일상을 탈출한 여행객에게도 여유와 감동을 전하는 문화충전이 될 듯 싶다. #. 따뜻한 면 찬바람이 불어오면 뜨끈하고 진한 국물이 그리워지는 것은 인지상정. 여기에 쫄깃한 면발이 곁들여지면, 금상첨화다. 제주에서만 맛볼 수 있는 재료가 면 요리에도 찾아들었다. 배지근한(맛이 묵직하고 진하며 감칠맛이 있다는 의미) 몸국에 면을 넣은 '몰망국수'와 딱새우부터 성게알, 꽃게까지 바다가 몽땅 들어간 '바릇국수'. 고기국수와 비빔국수에는 흑돼지가 들어가 맛에 제주다움을 더한다. 달콤하고 진한 팥 국물에 들어앉은 칼국수 면은 살짝 뿌린 설탕과 곁들이는 김치 덕분에 단짠단짠의 정석을 갖춘 팥칼국수가 된다. 건강과 입맛을 책임지고, 마음마저 데워줄 따뜻한 면의 다양한 매력으로 취향 존중과 입맛 저격까지 일석이조가 가능하다. 제주관광공사가 추전한 10월 명소들은 사이트(www.visitjeju.net)를 통해서도 확인가능하다. 보다 자세한 사항은  제주관광공사 지역관광처(064-740-6971)로 문의하면 된다. 저작권자 © 뉴스제주 무단전재 및 재배포 금지 이감사 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 자동등록방지 내용 0 / 400 등록 댓글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 많이 본 뉴스 뉴스 댓글 1[김광수 교육감 축사] 뉴스제주 창간 16주년 2[강병삼 시장 축사] 뉴스제주 창간 16주년 3[오영훈 지사 축사] 뉴스제주 창간 16주년 4[김한규 의원 축사] 뉴스제주 창간 16주년 5[이종우 시장 축사] 뉴스제주 창간 16주년 1수상자 본인 입니다. 확인 되지 않은 사실을 기반으로 허유사실을 공론화하지 않으시길 바랍니다. 2나 조만간 자살 할 것 같아 3ㅎ ㅎ ㅎ 4비슷비슷헌 사름덜 보염싱게~ 자기들부터 깨끗허게 살주게 5원희룡... 최신기사 제주소방 상황실, 빈틈 없는 신고 접수 제주소방 상황실, 빈틈 없는 신고 접수 제주 지구시민 해양정화 페스티벌 성황리 개최 제주 지구시민 해양정화 페스티벌 성황리 개최 서귀포시, 자립준비청년 지원 방안 마련 민·관 공유회의 개최 신용보증지원, 수도권에 지나치게 편중... 제주 소외 신용보증지원, 수도권에 지나치게 편중... 제주 소외 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 서귀포시, 사무관 승진의결자 8명 승진임용 서귀포시, 사무관 승진의결자 8명 승진임용 친절은 누구나 춤추게 한다. 친절은 누구나 춤추게 한다. 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 첨단로8길 34, 1층 대표전화 : 064-747-1188 팩스 : 064-745-4569 청소년보호책임자 : 남우엽 제호 : 뉴스제주 등록번호 : 제주 아 01007 등록일 : 2006-10-09 발행인 : 남우엽 편집인 : 남우엽 뉴스제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스제주. All rights reserved. mail to newsjeju@hanmail.net 위로</t>
+  </si>
+  <si>
+    <t>35대 제주도관광협회 수장 누가 맡나 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 35대 제주도관광협회 수장 누가 맡나 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 35대 제주도관광협회 수장 누가 맡나 기자명 고 미 기자 입력 2019.09.26 16:15 수정 2019.09.28 19:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 4선 김영진 회장 총선 출마 위해 30일자 사임키로임시총회 등 보궐선거 여부 결정…당분간 대행체제김영진 제주특별자치도관광협회장이 30일 자로 사임하며 바통을 이을 차기 협회장 인선 작업에 관심이 모아지고 있다.김 회장이 4번이나 연이어 관광협회장을 맡는 등 업계 내 영향력이 큰 데다, 사드 사태에 이은 경기 둔화 여파·국제 정세 악화로 제주 관광업계가 안팎으로 고전하고 있는 상황을 책임져야 하는 등 부담이 커 가급적 말을 아끼는 분위기다.김 회장은 지난 4월 내년 치를 제21대 국회의원 선거 출마 입장을 공식화 했다. 김 회장의 중도 사퇴로 도관광협회장은 차기 회장 확정 때까지 대행 체제로 꾸려지게 된다.이르면 10월 중 임시총회를 열어 경선 또는 추대 등 회장 임명 방식을 정하고 선거관리위원회 구성 등의 절차를 밟게 된다.협회 선거관리규정에는 회장 사퇴 때 보궐선거를 위한 별도의 선거관리위원회를 구성해 차기 회장 선출을 위한 세부 절차와 일정 등을 관리하도록 하고 있다. 선관위가 구성되면 30일 이내로 선거일이 결정돼 후보 등록 등 절차가 진행된다.차기 회장 후보군으로 현재 협회 부회장이자 관광지분과위원장인 고승철 ㈜삼영관광 일출랜드 대표와 역시 부회장으로 외식업분과위원장을 맡고 있는 부동석 중문덤장 대표가 거론되고 있다.임시총회 결과에 따라 후보군에 1~2명 정도 변동이 있을 것으로 내다보고 있다. 차기 회장의 임기는 2021년 2월까지다. 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 크리에이터 활용 과정 운영 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' 2022-10-11 13:07 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 크리에이터 활용 과정 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 크리에이터 활용 과정 운영 기자명 김승환 기자 입력 2019.09.19 15:20 수정 2019.09.19 15:23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 콘텐츠 편집, 촬영장비 사용요령 등 …10월 19일부터 매주 토요일 (제주=국제뉴스) 김승환 기자 = 제주특별자치도와 제주특별자치도관광협회 (회장 김영진)는 유튜브 콘텐츠의 확산, 파급력을 고려하여 제주지역 크리에이터 육성과 개인 계정을 활용한 제주관광 홍보를 위해 제주관광 크리에이터 활용 아카데미 과정을 실시한다.아카데미 교육과정은 콘텐츠 편집 소프트웨어 활용방법, 촬영 장비 사용요령, 유명 크리에이터 사례 분석 및 초청 강연, 테마별 현장 촬영 등 다양한 프로그램으로 구성되어있으며 교육생 눈높이에 맞는 1 대 1 맞춤 교육을 시행할 예정이다.교육일정은 10월 19일부터 매주 토요일 총 6회에 걸쳐 실시되고,교육비는 무료이며 우수 교육생에게는 유튜브 채널 홍보 지원 등이 이루어진다. 제주관광 1인 크리에이터 아카데미는 도내 재학생이면 누구나 지원이 가능하고, 신청기한은 오는 10월 8일까지이며 서류심사 및 면접을 통해 초·중·고·대학생 각 10명씩 40명을 선발할 예정이다.세부사항은 제주관광협회 홈페이지 내 공고를 참고하거나 담당 부서(064-741-8763)에 문의하면 자세한 상담을 받을 수 있다. 김승환 기자 qjqantk0603@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 BPA, 부산항 항만물류통합플랫폼 모바일 앱(올컨e) 사용 장려 위한 컨테이너 삼남매 캐릭터 공개 최신뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 포토뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광지 순환버스 운행할수록 세금 낭비한다 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 관광지 순환버스 운행할수록 세금 낭비한다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 관광지 순환버스 운행할수록 세금 낭비한다 기자명 박훈석 기자 입력 2019.09.23 15:43 댓글 2 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 사진은 기사와 관련없음. 자료사진감사 결과 제주도 전문기관 소형버스 용역 무시한채 대형 운행이용객 1일 1회 4~6명 저조…수입금도 재정지원 대비 3% 불과대중교통체계 개편과 동시에 실시한 관광지 순환버스 이용객이 미미하는 등 효율성이 떨어지면서 예산 낭비 지적을 받고 있다. 심지어 도는 자신들이 한국교통연구원에 의뢰한 관광지순환버스 용역보고서까지 무시, 혈세 낭비 지적을 받고 있다 제주특별자치도는 2017년 8월26일 대중교통체계를 개편하면서 '관광지순환버스(주) 업체에 2020년 5월10일까지 3년간 여객자동차운수업 한정면허를 발급, 대천·동광 등 4개 노선에 대형버스 18대를 투입해 1일 64회 운행토록 했다. 또 관광객 이용 편의를 높이기 위해 각 순환버스마다 교통관광 도우미 1명씩 18명을 승차시켜 안내하고 있다.  하지만 제주도감사위원회의 대중교통체계 개편 성과감사 결과 관광지순환버스 1일 평균 이용객이 4~6명으로 미미한 실정이다. 특히 지난해말까지 전체 평균 2118회 운행 중 5명 이하가 86.5%에 이를만큼 비효율적으로 운영되고 있다.관광지 순환버스가 비효율적으로 운영되는 것은 도가 전문기관의 용역보고서를 무시했기 때문이다. 감사위에 따르면 대중교통체계 실행용역을 맡은 한국교통연구원이 2017년 2월 최종보고서를 통해 관광지 순환노선에 소형버스 운영을 주문했지만 제주도는 대형승합버스로 사업자를 공모, 이용객 저조에 따른 예산낭비를 초래하고 있다.감사위의 분석 결과 도가 2017년 8월26일부터 2019년 1월까지 관광지순환버스 29억8800만원과 교통관광도우미 11억4100만원 등 총 41억3000만원의 혈세를 지원했지만 이용객 저조로 수입금은 1억3000만원(3.2%)에 불과했다.감사위는 "내년 5월 관광지순환버스 면허기간 종료될 때 환승센터 구축과 이용객 숫자, 운행 차종에 대한 경제성·효율성을 분석해 한정면허 갱신 여부를 재검토하는 등 실효성은 높이면서 예산낭비를 줄여야 한다"고 지적했다.이에대해 도 관계자는 "관광지 노선이 이용객 증대에 한계가 있어 일주도로변의 숙소·관광지 등과 연계, 개선책을 모색하겠다"고 말했다. 박훈석 기자 hss9718@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 2 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. 한라대학생 2019-09-24 10:58:28 더보기 삭제하기 저는 이 관광지순환버스가 좋습니다..심야에 이용할수 있어서 고마운 버스 이며 일반버스 요금으로 이용 할 수 있어서 더욱 좋습니다. 답글쓰기 0 0 제주바람 2019-09-24 10:16:29 더보기 삭제하기 중산간 지역의 도민들한테는 대중교통의 역할을 톡톡히 하고 뚜벅이 관광객들에도 반응이 좋턴데요..제 지인은 관광지 순환버스 이용으로 제주오면 렌트카 대여하지 않는다고 좋아하던데요. 답글쓰기 0 0 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>‘馬특구’ 제주도 "10월은 말문화 관광의 달"…축제 풍성 본문 바로가기 이전 페이지 파이낸셜뉴스 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 파이낸셜뉴스 주요뉴스를 볼 수 있습니다. 보러가기 파이낸셜뉴스 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 ‘馬특구’ 제주도 "10월은 말문화 관광의 달"…축제 풍성 입력2019.09.18. 오전 9:54 수정2019.09.18. 오전 10:16 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 렛츠런파크 제주, 10월 12~13일 ‘제주마 축제 ’개최‘제주 의귀말축제’, ‘제주 고마로馬문화축제’ 잇따라 제주마 축제 행사장에서 승마체험을 하고 있는 어린이 [사진=렛츠런파크 제주 제공] [제주=좌승훈 기자] 제주특별자치도와 한국마사회는 오는 10월을 '제주 말(馬) 문화 관광의 달'로 지정한 가운데 도내 곳곳에서 말 관련 축제가 잇따라 펼쳐져 도민과 관광객들의 발길을 재촉하고 있다. 헌마공신 김만일의 고향인 서귀포시 남원읍 의귀리에선 오는 10월5일부터 6일까지 '제주 의귀 말축제'를 연다. 김만일은 조선시대 왜란과 호란을 거치며 나라의 국력이 피폐해지자, 본인이 육성한 마필 수천 마리를 군마용으로 헌상해 임금으로부터 헌마공신이라는 칭호를 받았다. 렛츠런파크 제주에서도 10월12일~13일에 '제주마 축제'를, 같은 달 18일~19일에는 제주시 일도2동에서 ‘고마로 馬문화축제’를 개최한다. ‘제주 의귀 말축제’에는 ‘의귀사람 김만일, 헌마퍼레이드’를 비롯해 제주마 전통 밭 갈기 체험 등이 진행된다. 제주마 축제에는 4차 산업 신기술과 제주 전통의 말문화를 결합한 마문화 ICT 체험관, 천연기념물 제주마 홍보관, 마상기예, 제주 사회적기업 박람회 등이 준비돼 있다. ‘제주 고마로 馬문화 축제’에는 전통 마제, 기마대 퍼레이드, 말고기 시식회 등이 마련된다. 전국 최초로 말산업 특구로 지정된 제주도는 도내 각 지역에서 개최되는 말 관련 축제를 10월에 집중 개최함으로써 말의 고장 이미지를 홍보하고 다양한 축제를 지원해 오고 있다. 렛츠런파크 제주 이영회 홍보과장은 "말 문화 관광의 달 활성화를 위해 민관이 참여하는 통합 마케팅을 펼치고 있다"면서 "한국마사회는 유명 파워 블로거를 초청해 10월 말축제 내용을 관광객에게 자세히 소개하고 방송 광고 등 통합 홍보를 담당하고 있다"고 말했다. jpen21@fnnews.com 좌승훈 기자 ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ 클릭해, 뉴스 들어간다 [뉴스쿨] ▶ 세상에 이런일이 [fn파스] ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지 좌승훈(jpen21@fnnews.com) Copyright ⓒ 파이낸셜뉴스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. "분하다" 한국에 참패한 日여자배구 감독, 참지 못하고.. 박지원, 조국 미래 예언 "부인, 5촌 조카, 딸.." 증상 없어도.. 50세 넘으면 해봐야 할 '이것' &lt;건강&gt; 12조원 규모 한화디펜스 장갑차, 수주 성사되면.. 손쉽게 사용하는 아스피린, 알고 보니 양날의 검 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 파이낸셜뉴스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 파이낸셜뉴스 헤드라인 우리 사주 산 직원들 '신불자' 위기, 카카오뱅크 또다시 '최저가' 연이은 주가 급락세에 카카오뱅크가 자사주 매입과 소각 등 주주환원 정책을 발표했지만 또다시 상장 후 최저가를 기록했다. 장밋빛 미래를 꿈꾸며 수억원을 대출받아 우리사주를 산 카카오뱅크 직원들은 반대매매를 우려할 지경 '코로나 일자리 사라지니' 고용보험 가입자 30만명대로 추락 9월 고용보험 가입자 수 증가폭이 30만명대로 떨어졌다. 월별 가입자 증가폭은 7개월째 감소하고 있다. 11일 고용노동부가 발표한 '고용행정 통계로 본 2022년 9월 노동시장 동향'에 따르면 지난달 말 기준 고용보 저소득층 에너지 바우처 가구당 1만3천원 추가 인상 산업통상자원부는 최근 잇따른 에너지 가격 상승으로 인한 취약계층의 에너지 비용 부담을 덜어주기 위해 에너지 바우처의 가구당 평균 지원단가를 1만3000원 인상(17만2000원→18만5000원)한다고 11일 밝혔다. 野 김용민 "尹정부 조기 퇴진" 주장에.. 정진석 "반헌법적 선동, 선거 불복" 정진석 국민의힘 비상대책위원장이 11일 김용민 더불어민주당 의원의 '윤석열 대통령 조기 퇴진' 주장에 대해 "반헌법적 선동", "선거불복"이라며 규탄했다. 김 의원은 지난 8일 서울 청계광장에서 열린 '윤석열 퇴진' "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보를 하자마자 무참히 살해됐다. 여성은 숨지기 직전까지 아이들만 걱정했다. 지난 6일 MBC '실화탐사대'에서는 지난 5월 발생한 '여수 의처증 살인 사건'을 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 이전 뉴스들 보기 3 다음 뉴스들 보기 파이낸셜뉴스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 파이낸셜뉴스 헤드라인 더보기 우리 사주 산 직원들 '신불자' 위기, 카카오뱅크 또다시 '최저가' 3시간전 '코로나 일자리 사라지니' 고용보험 가입자 30만명대로 추락 53분전 저소득층 에너지 바우처 가구당 1만3천원 추가 인상 1시간전 野 김용민 "尹정부 조기 퇴진" 주장에.. 정진석 "반헌법적 선동, 선거 불복" 58분전 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 4시간전 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 5시간전 파이낸셜뉴스 랭킹 뉴스 정오~오후 1시까지 집계한 결과입니다. 오전 10시~오후 1시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 5시간전 2 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 4시간전 3 신화 신혜성, 음주측정 거부하다 체포..차량은 도난 의심 4시간전 4 우리 사주 산 직원들 '신불자' 위기, 카카오뱅크 또다시 '최저가' 3시간전 5 비트코인 채굴 난도 사상 최고치..이더리움 머지 때문? 2시간전 1 다시 불붙은 공매도 논란…미지근한 금융당국, 분노하는 개미들 8시간전 2 한동훈 "김의겸, 자주 머릿속 상상을 말해 주위에 피해 줘" 6시간전 3 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 4시간전 4 우리 사주 산 직원들 '신불자' 위기, 카카오뱅크 또다시 '최저가' 3시간전 5 김정숙 여사 인도 방문때 靑 요리사도 데려갔다..문체부 명단에 있어 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 배달사업자 연 9천만 원 버는데…"택시 연매출 3천만 원" 택시 기사의 연간 매출액이 3000만원 수준으로 퀵·배달대행 서비스업에 종사하는 소상공인과 비교해 3분의 1 수준인 것으로 나타났습니다. 오늘(11일) 국회 산업통상자원중소벤처기업위원회 소속 구자근 국민의힘 의원이 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 [단독] 김정숙 여사 인도 갈 때 靑요리사도 데려갔다… 방문단 명단 보니 김정숙 여사 인도 방문단 명단 보니 영부인 나흘 출장에 경호실 제외하고도 13명 동행 우리측 주최 공식 식사 없는데 대통령 요리사 대동시켜 문재인 대통령 부인 김정숙 여사의 2018년 11월 인도 방문이 ‘쓰지 않았 정진석 “조선은 썩어서 망해”…野 “친일 앞잡이, 천박” 맹비난(종합) 이재명 더불어민주당 대표의 ‘친일 국방’ 발언에 대한 정진석 국민의힘 비상대책위원장의 반박 발언을 두고 민주당 의원들이 “친일 앞잡이” 등 강도 높은 표현으로 일제히 비판의 목소리를 높였다. 더불어민주당 이재명 대표 “엄마 아프지 마. 사랑해”… 의처증 남편에 살해된 여성, 딸이 보낸 문자에는 MBC ‘실화탐사대’ 방송화면 갈무리. 전남 여수시의 한 아파트 주차장에서 남편이 휘두른 흉기에 수차례 찔려 사망한 피해자는 구급차에 실려가는 위급한 상황에서도 “우리 아이들은 어떡해”라며 오직 자녀들 걱정뿐이었다. "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 "수육국밥 주문하려고요" 112 신고 사례 홍보에 국민들 난감 수육국밥을 주문하려고요." 지난달 20일 오후 4시 57분께 걸려 온 신고 전화다. A경사는 여성 신고자의 떨리는 목소리를 수상히 여겨 관할 경찰서에 현장 출동을 요청했고 20대 여성을 구조했다. 택시기사들이 본인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 윤석열 대통령은 11일 “청년들이 임대주택과 현금을 그냥 쥐여줄 것이 아니라 내 집 마련과 자산형성을 할 수 있도록 도와야 한다”고 말했다. 윤 대통령은 이날 오전 용산 대통령실 청사에서 열린 제45회 국무회의 모두 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 양발 운전, 어떻게 생각하십니까? 자동변속 자동차 운전에 양발을 쓰는 것에 대한 찬반 논쟁이 인터넷 커뮤니티를 중심으로 벌어지고 있다. 반대하는 쪽은 “운전면허를 뺏어야 한다”는 등 격앙된 반응을 보이고 있지만, 양 ‘尹 멘토’ 신평, 주어 없는 저격글 ‘파장’…“A씨, 직책 내정에 유력 인사 도움 받아” 尹대통령 ‘정권교체’ 함께 도운 A씨 겨냥 “부적절한 직책 내정” 직격 “그 직책에 당신의 직무적합성을 아무리 찾으려고 해도 찾을 수 없어” “자신의 힘으로는 벅찬지, 다른 유력 인사의 도움 받았다는 소문이 파다하더 신화 신혜성, 도난차량서 음주측정 거부하다 체포 신화의 신혜성이 음주측정을 거부하다가 체포됐다. 신씨는 도난 신고가 들어온 차량을 타고 있었다. 11일 서울 송파경찰서는 이날 오전 1시 40분께 송파구 탄천2교에서 신씨를 도로교통법상 음주측정거부, 절도 혐의로 체 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 아이폰 들고 놀이기구 탄 치과의사…잠금화면 알림 보고 당황 애플 신제품인 아이폰14 시리즈에 탑재된 충돌 감지 기능에서 놀이기구 탑승을 교통사고로 인식해 오작동하는 사례가 발견됐다. 10일(현지시간) 월스트리트저널(WSJ)에 따르면 미국의 30대 치과의사 사라 화이트는 지난 재생하기 재생시간01:29 김정은 2주간 '전술핵' 지휘…"더는 대화 필요 없다" 북한이 오늘(10일) 공개한 사실이 하나 더 있습니다. 2주 동안 모습을 드러내지 않았던 김정은 위원장의 행적입니다. '전술핵 훈련' 다시 말해, 핵무기를 작게 만들어 쏘는 훈련을 지휘했다는 겁니다. 이건, 한반도를 같은 번호판 2개…간적 없는 곳서 주차위반 “7달째 영문 몰라” 같은 번호판을 단 2대의 차량이 동시에 존재하는데도 경찰과 지자체가 7달째 영문도 파악하지 못했다는 지적이 나왔다. 10일 KBS는 강원 동해시에서 파란색 화물차(H사 차종)를 운행하는 임모 씨의 제보 사연을 전했다 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 잠실 등 2020년보다 1억∼2억원 떨어져…'임대차2법' 상승분 반납해 "급전세도 안 나가"…기존 세입자도 가격 낮춰 계약, 보증금 내줘 금리 인상에 전세시장 약세 지속 전망…전문가 "임차인 피해 대비해야" (서울= 이재명 "지적하니 종북몰이…해방 후 친일파와 다를 거 없어" 이재명 민주당 대표가 독도 근해에서 이뤄지는 한미일 합동 군사 훈련을 재차 비판하고, 이에 대해 반발하는 여권을 향해 "해방 이후 친일파들이 했던 행태와 다를 게 전혀 없다"라고 맹비난했습니다. 이재명 대표는 오늘( “1억원 손실, 부부싸움까지 했어요” 15만원→5만 카카오, 말이 돼? “카카오 때문에 화병 나겠습니다. 부부싸움까지 했어요. 1억원 넘게 손실인데 와이프가 이제라도 팔라고 하네요. 조만간 오르겠지 기대하고 안 팔고 버텼는데 이 지경이 됐으니….”(카카오 투자자) “지하까지 내려온 줄 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 여야가 동해에서 이뤄진 한미일 연합훈련을 두고 정면충돌하고 있다. 더불어민주당은 이재명 대표가 직접 나서 윤석열 대통령이 직접 소명해야 한다며 공세 수위를 높였고, 국민의힘도 정진석 비대위원장이 전면에 나서 안보를 집주인이 乙됐다… 서울 역전세난, 은마도 2년전보다 싼 매물 속출 서울 아파트 전셋값이 매물 증가와 거래 감소로 약세를 보이면서 전세 시세가 2년 전 실거래 가격보다 떨어진 단지들이 속출하고 있다. 이에 집주인이 전세 재계약을 하면서 기존 세입자에게 보증금을 돌려주는 데 어려움을 재생하기 재생시간01:23 임산부 배려석 앉아있던 임신부…노부부 다가와 "비켜" 어제(10일)는 임산부의 날이었습니다. 임신과 출산을 배려하는 사회적 분위기를 만들자는 취지로 마련된 날이죠. 하지만, 여전히 우리 사회에서 임신부에 대한 배려가 다소 부족하다는 기사에 관심이 높았습니다. 대표적인 "밥 먹고 바로 샤워? No!" 식사 후 금지행동 5 건강을 위해 올바른 식습관을 갖는 건 아주 중요하다. 무엇을, 언제, 얼마나 먹을지 생각해야 하고 식사를 할 때에도 마음을 쓰며 먹는 것이 도움이 된다. 그런데 우리는 평소 무의식적으로 소화에 도움이 되지 않는 행동 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 우크라이나 수도 키이우가 크림대교 폭발 이틀만인 10일(현지시간) 공습을 당한 가운데 러시아 서부 벨고로드에서도 큰 폭발음이 들렸다고 로이터통신이 목격자를 인용해 보도했다. 로이터는 “우크라이나 국경에서 가까운 벨고 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 러시아가 크림대교 폭발 사고 이후 이틀 만인 지난 10일(현지시간) 우크라이나 수도 키이우 등 주요 도시에 미사일 공격을 퍼부은 가운데 공습 당시 다리를 건너다 가까스로 목숨을 건진 시민의 모습이 포착됐다. 10일 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 국감에서 나온 기후 이슈들 (1) 기후보좌관입니다 유료 5살부터 시작하는 유럽의 국민 스포츠 독일 오리맘 221004_투자시나리오 에어라인 유료 오늘의 시사상식 문제 #347 매경 취업스쿨 유료 10/5 오늘의 주요 증시 일정 리치언니 투자노트 코스닥은 외국인 놀이터 Investment strategy 유료 고구마 수확 미드미주식 유료 [트윗시황] 윌리 우 "비트코인, 증시와 상관성 항상 일치하진 않아" 코인데스크 프리미엄 유료 연암협을 찾아간 북한 문인 윤세평의 기록 네버 엔딩 히스토리 10. 'Send in the Clowns' : '10월의 신부' 김연아 "하늘이 보낸 선물!" 뮤즈, 인월 유료 “공기업의 ‘공공성’과 사기업의 ‘융통성’이 모두 있어요” 서울시자원봉사센터 청년사업팀의 허경진 대리와 임민주 주임 매경 취업스쿨 유료 [편지로 채우는 한 잔] 헤어질 준비 English Cafe 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 파이낸셜뉴스 예 아니오</t>
   </si>
 </sst>
 </file>
@@ -434,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -477,6 +504,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -486,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -518,9 +548,6 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -530,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +579,59 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
